--- a/xlsx/glMark2用例分析及测试结果.xlsx
+++ b/xlsx/glMark2用例分析及测试结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/OpenGL项目/OpenGL-Notes/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFEAEA7-8D3B-2F4F-8B84-619DA6DB4C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F51DB8-A09F-409D-A0F7-5C4B3B5C9B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,88 +632,88 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,25 +1040,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16366C72-5762-E64F-A88F-D572B4F232BB}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1081,881 +1081,905 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="24">
         <v>4560</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="24">
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="b">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="24">
         <v>4358</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="24">
         <v>1540</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="b">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="b">
+      <c r="D6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="26">
         <v>4093</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="26">
         <v>1402</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="b">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="26">
         <v>4048</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="26">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="26">
         <v>4058</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="26">
         <v>1404</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="19">
         <v>3723</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="19">
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>3784</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>1417</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>3520</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>1421</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>3432</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>1420</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>2853</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <v>1245</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="17">
         <v>4242</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="17">
         <v>1550</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="17">
         <v>4052</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="17">
         <v>1542</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="21">
         <v>2593</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="21">
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="F23" s="29"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13" t="b">
+      <c r="D24" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="21">
         <v>1372</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="21">
         <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="b">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="F25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="23">
         <v>3783</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="23">
         <v>1073</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="15" t="b">
+      <c r="D27" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15" t="b">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="15" t="b">
+      <c r="D29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="b">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="15" t="b">
+      <c r="D31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="b">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="14">
         <v>1493</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="14">
         <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="13">
         <v>4</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="13">
         <v>5</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="14">
         <v>991</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="14">
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="32" t="b">
+      <c r="D39" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32" t="b">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="13">
         <v>20</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="16" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="17" t="b">
+      <c r="D42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>493</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="15">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17" t="b">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <v>430</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17" t="s">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="10">
         <v>100</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17" t="s">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="10">
         <v>20</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>846</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="15">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17" t="s">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17" t="s">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="18" t="s">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="16">
         <v>845</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="16">
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19" t="s">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="20" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="F57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="12">
         <v>2484</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="12">
         <v>690</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>2832</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H32"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="F46:F48"/>
     <mergeCell ref="F49:F52"/>
     <mergeCell ref="F53:F56"/>
@@ -1972,49 +1996,33 @@
     <mergeCell ref="F33:F37"/>
     <mergeCell ref="F38:F41"/>
     <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H53:H56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/glMark2用例分析及测试结果.xlsx
+++ b/xlsx/glMark2用例分析及测试结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/OpenGL项目/glMark2测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F51DB8-A09F-409D-A0F7-5C4B3B5C9B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FB21B-7470-804E-BBE1-18CF6E9F28CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="146">
   <si>
     <t>场景</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -425,13 +425,166 @@
   <si>
     <t>texture-filter=nearest</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要测试多层纹理下的bloom泛光效果和移轴特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat-overlay：在地形平面上纹理贴图的重复次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloom：是否使用bloom泛光后处理效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tilt-shift：是否使用移轴特效后处理效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要测试阴影贴图效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>主要测试折射效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture：使用的问题贴图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nasal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index：模拟介质的折射率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-steps：片段着色器中的计算步骤数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-steps：顶点着色器中的计算步骤数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-conditionals：片段着色器每个计算步骤中是否包含if-else语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-conditions：顶点着色器每个计算步骤中是否包含if-else语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>fragment-function:片段着色器每个计算步骤中是否包含函数调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-function：顶点着色器每个计算步骤中是否包含函数调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-complexity：顶点着色器每个计算步骤的复杂度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-complexity：片段着色器每个计算步骤的复杂度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要测试shader中处理函数调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要测试shader中处理条件判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要测试shader中处理循环计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-loop：片段着色器是否使用for循环执行计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-loop：片段着色器是否使用for循环执行计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex-uniform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-uniform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-steps=0:vertex-steps=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-steps=5:vertex-steps=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-steps=0:vertex-steps=5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragment-complexity=low:fragment-steps=5:</t>
+  </si>
+  <si>
+    <t>fragment-complexity=medium:fragment-steps=5</t>
+  </si>
+  <si>
+    <t>fragment-loop=false:fragment-steps=5:vertex-steps=5</t>
+  </si>
+  <si>
+    <t>fragment-steps=5:fragment-uniform=false:vertex-steps=5</t>
+  </si>
+  <si>
+    <t>fragment-steps=5:fragment-uniform=true:vertex-steps=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +683,38 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -558,30 +741,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,8 +785,23 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,66 +853,101 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="16">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - 着色 4" xfId="7" builtinId="42"/>
     <cellStyle name="20% - 着色 5" xfId="10" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="13" builtinId="50"/>
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - 着色 2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - 着色 4" xfId="8" builtinId="43"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47"/>
+    <cellStyle name="40% - 着色 6" xfId="14" builtinId="51"/>
     <cellStyle name="60% - 着色 1" xfId="3" builtinId="32"/>
     <cellStyle name="60% - 着色 2" xfId="6" builtinId="36"/>
     <cellStyle name="60% - 着色 4" xfId="9" builtinId="44"/>
+    <cellStyle name="60% - 着色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="60% - 着色 6" xfId="15" builtinId="52"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,26 +1260,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16366C72-5762-E64F-A88F-D572B4F232BB}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="54.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="53.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="17">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1071,6 +1291,7 @@
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="32"/>
       <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1081,167 +1302,177 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="20">
         <v>4560</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="20">
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+    <row r="3" spans="1:8">
+      <c r="A3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <v>4358</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <v>1540</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="21">
         <v>4093</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="21">
         <v>1402</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="21">
         <v>4048</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="21">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="21">
         <v>4058</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="21">
         <v>1404</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1250,36 +1481,39 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="22">
         <v>3723</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="22">
         <v>1420</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="6" t="s">
         <v>90</v>
       </c>
@@ -1290,13 +1524,14 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="32"/>
       <c r="F15" s="6" t="s">
         <v>91</v>
       </c>
@@ -1307,13 +1542,14 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="E16" s="32"/>
       <c r="F16" s="6" t="s">
         <v>92</v>
       </c>
@@ -1324,19 +1560,20 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="E17" s="32"/>
       <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
@@ -1347,131 +1584,139 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="18">
         <v>4242</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="18">
         <v>1550</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>4052</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>1542</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+    <row r="21" spans="1:8">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <v>2593</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="28"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="28"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>1372</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1480,90 +1725,97 @@
       <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="17">
         <v>3783</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="17">
         <v>1073</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="29"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="29"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="29"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="29"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="29"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="29"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -1575,6 +1827,7 @@
       <c r="D33" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="E33" s="32"/>
       <c r="F33" s="14" t="s">
         <v>99</v>
       </c>
@@ -1585,19 +1838,20 @@
         <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="E34" s="32"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13" t="s">
         <v>49</v>
@@ -1605,12 +1859,13 @@
       <c r="D35" s="13">
         <v>4</v>
       </c>
+      <c r="E35" s="32"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="30"/>
       <c r="B36" s="14"/>
       <c r="C36" s="13" t="s">
         <v>50</v>
@@ -1618,12 +1873,13 @@
       <c r="D36" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="E36" s="32"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13" t="s">
         <v>51</v>
@@ -1631,12 +1887,13 @@
       <c r="D37" s="13">
         <v>1</v>
       </c>
+      <c r="E37" s="32"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30"/>
       <c r="B38" s="14"/>
       <c r="C38" s="13" t="s">
         <v>52</v>
@@ -1644,6 +1901,7 @@
       <c r="D38" s="13">
         <v>5</v>
       </c>
+      <c r="E38" s="32"/>
       <c r="F38" s="14" t="s">
         <v>100</v>
       </c>
@@ -1654,8 +1912,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
         <v>53</v>
@@ -1663,23 +1921,25 @@
       <c r="D39" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="E39" s="32"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="E40" s="32"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:8">
+      <c r="A41" s="30"/>
       <c r="B41" s="14"/>
       <c r="C41" s="13" t="s">
         <v>54</v>
@@ -1687,12 +1947,13 @@
       <c r="D41" s="13">
         <v>20</v>
       </c>
+      <c r="E41" s="32"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -1704,6 +1965,7 @@
       <c r="D42" s="10" t="b">
         <v>0</v>
       </c>
+      <c r="E42" s="32"/>
       <c r="F42" s="15" t="s">
         <v>101</v>
       </c>
@@ -1714,19 +1976,20 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="31"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="E43" s="32"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="31"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
         <v>58</v>
@@ -1734,23 +1997,25 @@
       <c r="D44" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="E44" s="32"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:8">
+      <c r="A45" s="31"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="E45" s="32"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="31"/>
       <c r="B46" s="15"/>
       <c r="C46" s="10" t="s">
         <v>61</v>
@@ -1758,6 +2023,7 @@
       <c r="D46" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="E46" s="32"/>
       <c r="F46" s="15" t="s">
         <v>101</v>
       </c>
@@ -1768,8 +2034,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="31"/>
       <c r="B47" s="15"/>
       <c r="C47" s="10" t="s">
         <v>62</v>
@@ -1777,12 +2043,13 @@
       <c r="D47" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="E47" s="32"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:8">
+      <c r="A48" s="31"/>
       <c r="B48" s="15"/>
       <c r="C48" s="10" t="s">
         <v>63</v>
@@ -1790,12 +2057,13 @@
       <c r="D48" s="10">
         <v>100</v>
       </c>
+      <c r="E48" s="32"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="31"/>
       <c r="B49" s="15"/>
       <c r="C49" s="10" t="s">
         <v>64</v>
@@ -1803,6 +2071,7 @@
       <c r="D49" s="10">
         <v>20</v>
       </c>
+      <c r="E49" s="32"/>
       <c r="F49" s="15" t="s">
         <v>102</v>
       </c>
@@ -1813,8 +2082,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="31"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
         <v>65</v>
@@ -1822,33 +2091,36 @@
       <c r="D50" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="E50" s="32"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="31"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="E51" s="32"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="31"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="E52" s="32"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="16" t="s">
         <v>69</v>
       </c>
@@ -1861,6 +2133,7 @@
       <c r="D53" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="E53" s="32"/>
       <c r="F53" s="16" t="s">
         <v>103</v>
       </c>
@@ -1871,40 +2144,43 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="E54" s="32"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="E55" s="32"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="E56" s="32"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" customFormat="1">
       <c r="A57" s="12" t="s">
         <v>76</v>
       </c>
@@ -1917,6 +2193,7 @@
       <c r="D57" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="E57" s="32"/>
       <c r="F57" s="12" t="s">
         <v>104</v>
       </c>
@@ -1927,16 +2204,701 @@
         <v>690</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G58" s="1">
-        <v>2832</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1107</v>
-      </c>
+    <row r="58" spans="1:8" customFormat="1">
+      <c r="A58" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="34">
+        <v>6</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="33">
+        <v>1931</v>
+      </c>
+      <c r="H58" s="33">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" customFormat="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="1:8" customFormat="1">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8" customFormat="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8" customFormat="1">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8" customFormat="1">
+      <c r="A63" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="32"/>
+      <c r="F63" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="35">
+        <v>12076</v>
+      </c>
+      <c r="H63" s="35">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" customFormat="1">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+    </row>
+    <row r="65" spans="1:8" customFormat="1">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="1:8" customFormat="1">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="32"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="1:8" customFormat="1">
+      <c r="A67" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="32"/>
+      <c r="F67" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" s="37">
+        <v>3849</v>
+      </c>
+      <c r="H67" s="37">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" customFormat="1">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="E68" s="32"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+    </row>
+    <row r="69" spans="1:8" customFormat="1">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+    </row>
+    <row r="70" spans="1:8" customFormat="1">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="32"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" spans="1:8" customFormat="1">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="32"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+    </row>
+    <row r="72" spans="1:8" customFormat="1">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="32"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+    </row>
+    <row r="73" spans="1:8" customFormat="1">
+      <c r="A73" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="40">
+        <v>1</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="39">
+        <v>16039</v>
+      </c>
+      <c r="H73" s="39">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" customFormat="1">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="32"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+    </row>
+    <row r="75" spans="1:8" customFormat="1">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="32"/>
+      <c r="F75" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="39">
+        <v>15924</v>
+      </c>
+      <c r="H75" s="39">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" customFormat="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="40">
+        <v>1</v>
+      </c>
+      <c r="E76" s="32"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+    </row>
+    <row r="77" spans="1:8" customFormat="1">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="32"/>
+      <c r="F77" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="39">
+        <v>16063</v>
+      </c>
+      <c r="H77" s="39">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" customFormat="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="32"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+    </row>
+    <row r="79" spans="1:8" customFormat="1">
+      <c r="A79" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="42">
+        <v>1</v>
+      </c>
+      <c r="E79" s="32"/>
+      <c r="F79" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="41">
+        <v>16017</v>
+      </c>
+      <c r="H79" s="41">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" customFormat="1">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="32"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+    </row>
+    <row r="81" spans="1:8" customFormat="1">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+    </row>
+    <row r="82" spans="1:8" customFormat="1">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="42">
+        <v>1</v>
+      </c>
+      <c r="E82" s="32"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+    </row>
+    <row r="83" spans="1:8" customFormat="1">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="32"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="1:8" customFormat="1">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="32"/>
+      <c r="F84" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" s="41">
+        <v>15947</v>
+      </c>
+      <c r="H84" s="41">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" customFormat="1">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+    </row>
+    <row r="86" spans="1:8" customFormat="1">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="32"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+    </row>
+    <row r="87" spans="1:8" customFormat="1">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+    </row>
+    <row r="88" spans="1:8" customFormat="1">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="32"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+    </row>
+    <row r="89" spans="1:8" customFormat="1">
+      <c r="A89" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="32"/>
+      <c r="F89" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="20">
+        <v>15974</v>
+      </c>
+      <c r="H89" s="20">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" customFormat="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="32"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" customFormat="1">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="32"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" customFormat="1">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="32"/>
+      <c r="F92" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="20">
+        <v>16034</v>
+      </c>
+      <c r="H92" s="20">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" customFormat="1">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="32"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" customFormat="1">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="32"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" customFormat="1">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="20">
+        <v>15977</v>
+      </c>
+      <c r="H95" s="20">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" customFormat="1">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="32"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" customFormat="1">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="32"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" customFormat="1">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="32"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="147">
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F67:F72"/>
+    <mergeCell ref="G67:G72"/>
+    <mergeCell ref="H67:H72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>

--- a/xlsx/glMark2用例分析及测试结果.xlsx
+++ b/xlsx/glMark2用例分析及测试结果.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/OpenGL项目/glMark2测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lab219\2020OpenGL\notes\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8FB21B-7470-804E-BBE1-18CF6E9F28CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A54CC-CC38-4EFC-91D3-05753279941F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="intel-zink" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="166">
   <si>
     <t>场景</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -578,13 +578,97 @@
   </si>
   <si>
     <t>fragment-steps=5:fragment-uniform=true:vertex-steps=5</t>
+  </si>
+  <si>
+    <t>swap buffer 时间占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait fence 时间占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析到的时间比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每秒 VBO 申请量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均11帧左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每帧 VBO 申请量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每秒贴图加载量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO 总申请量/byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图总加载量/像素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧刷新相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBO申请次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图加载次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析出的时间/s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每帧贴图加载量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RADEONTOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -615,8 +699,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,8 +819,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -750,8 +868,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,20 +947,20 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,25 +991,190 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -871,68 +1183,107 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="18" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
     <cellStyle name="20% - 着色 4" xfId="7" builtinId="42"/>
@@ -948,7 +1299,9 @@
     <cellStyle name="60% - 着色 4" xfId="9" builtinId="44"/>
     <cellStyle name="60% - 着色 5" xfId="12" builtinId="48"/>
     <cellStyle name="60% - 着色 6" xfId="15" builtinId="52"/>
+    <cellStyle name="百分比" xfId="17" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="16" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,1733 +1613,3197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16366C72-5762-E64F-A88F-D572B4F232BB}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="F44:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="23.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.9296875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.46484375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.796875" style="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.796875" style="1"/>
+    <col min="18" max="18" width="11.59765625" style="1" customWidth="1"/>
+    <col min="19" max="30" width="10.796875" style="1"/>
+    <col min="31" max="31" width="17.86328125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="99" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
+      <c r="H1" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD2" s="96"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31">
+        <v>1127</v>
+      </c>
+      <c r="H3" s="31">
+        <v>331.99</v>
+      </c>
+      <c r="I3" s="31">
+        <v>329.27</v>
+      </c>
+      <c r="J3" s="42">
+        <f>I3/H3</f>
+        <v>0.9918069821380161</v>
+      </c>
+      <c r="K3" s="43">
+        <v>0.77696383999999996</v>
+      </c>
+      <c r="M3" s="44">
+        <v>0.65756912000000001</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20">
+        <v>92</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="1">
+        <v>35253452</v>
+      </c>
+      <c r="S3" s="1">
+        <v>106505</v>
+      </c>
+      <c r="U3" s="1">
+        <v>94</v>
+      </c>
+      <c r="W3" s="1">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>17205736</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>51981</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="20" t="s">
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="20">
+      <c r="F4" s="45">
         <v>4560</v>
       </c>
-      <c r="H2" s="20">
+      <c r="G4" s="45">
         <v>1543</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="4" t="b">
+      <c r="H4" s="83">
+        <v>10.08</v>
+      </c>
+      <c r="I4" s="84">
+        <v>9.93</v>
+      </c>
+      <c r="J4" s="87">
+        <f t="shared" ref="J4:J69" si="0">I4/H4</f>
+        <v>0.98511904761904756</v>
+      </c>
+      <c r="K4" s="81">
+        <v>0.89064407000000001</v>
+      </c>
+      <c r="M4" s="95">
+        <v>0.79132287000000001</v>
+      </c>
+      <c r="O4" s="96">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="96">
+        <v>516384</v>
+      </c>
+      <c r="S4" s="96">
+        <v>51638</v>
+      </c>
+      <c r="U4" s="96">
+        <v>33</v>
+      </c>
+      <c r="W4" s="96">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="62"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="24"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="82"/>
+      <c r="M5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AC5" s="96"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="20" t="s">
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="20">
+      <c r="F6" s="45">
         <v>4358</v>
       </c>
-      <c r="H4" s="20">
+      <c r="G6" s="45">
         <v>1540</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="24"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="4" t="b">
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="82"/>
+      <c r="M6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AC6" s="96"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="62"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="25" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="82"/>
+      <c r="M7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AC7" s="96"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="21" t="s">
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="21">
+      <c r="F8" s="74">
         <v>4093</v>
       </c>
-      <c r="H6" s="21">
+      <c r="G8" s="74">
         <v>1402</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="25"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="5" t="b">
+      <c r="H8" s="85">
+        <v>10.079015981</v>
+      </c>
+      <c r="I8" s="86">
+        <v>9.93</v>
+      </c>
+      <c r="J8" s="88">
+        <f t="shared" si="0"/>
+        <v>0.98521522524808869</v>
+      </c>
+      <c r="K8" s="95">
+        <v>0.89524583999999996</v>
+      </c>
+      <c r="M8" s="95">
+        <v>0.79576237000000005</v>
+      </c>
+      <c r="O8" s="96">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="96">
+        <v>1152</v>
+      </c>
+      <c r="S8" s="96">
+        <v>384</v>
+      </c>
+      <c r="U8" s="96">
+        <v>0</v>
+      </c>
+      <c r="W8" s="96">
         <v>1</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
+      <c r="Y8" s="96">
+        <v>262144</v>
+      </c>
+      <c r="AA8" s="96">
+        <v>26214</v>
+      </c>
+      <c r="AC8" s="96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AC9" s="96"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="21" t="s">
+      <c r="E10" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="21">
+      <c r="F10" s="74">
         <v>4048</v>
       </c>
-      <c r="H8" s="21">
+      <c r="G10" s="74">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="25"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="5" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AC10" s="96"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="25"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="5" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AC11" s="96"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="21" t="s">
+      <c r="E12" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="21">
+      <c r="F12" s="74">
         <v>4058</v>
       </c>
-      <c r="H10" s="21">
+      <c r="G12" s="74">
         <v>1404</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="25"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="5" t="s">
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AC12" s="96"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="26" t="s">
+      <c r="E13" s="63"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AC13" s="96"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="22" t="s">
+      <c r="E14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="22">
+      <c r="F14" s="75">
         <v>3723</v>
       </c>
-      <c r="H12" s="22">
+      <c r="G14" s="75">
         <v>1420</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22" t="s">
+      <c r="H14" s="89">
+        <v>10.1</v>
+      </c>
+      <c r="I14" s="90">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J14" s="88">
+        <f t="shared" si="0"/>
+        <v>0.98514851485148514</v>
+      </c>
+      <c r="K14" s="95">
+        <v>0.90177209999999997</v>
+      </c>
+      <c r="M14" s="95">
+        <v>0.80138301999999995</v>
+      </c>
+      <c r="O14" s="96">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="96">
+        <v>1033056</v>
+      </c>
+      <c r="S14" s="96">
+        <v>103305</v>
+      </c>
+      <c r="U14" s="96">
+        <v>71</v>
+      </c>
+      <c r="W14" s="96">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="6" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AC15" s="96"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="66"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="6" t="s">
+      <c r="E16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F16" s="4">
         <v>3784</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G16" s="4">
         <v>1417</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="26"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="6" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AC16" s="96"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="6" t="s">
+      <c r="E17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F17" s="4">
         <v>3520</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G17" s="4">
         <v>1421</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="6" t="s">
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AC17" s="96"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="6" t="s">
+      <c r="E18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="6">
+      <c r="F18" s="4">
         <v>3432</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G18" s="4">
         <v>1420</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="27" t="s">
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AC18" s="96"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C19" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="7" t="s">
+      <c r="E19" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="7">
+      <c r="F19" s="5">
         <v>2853</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G19" s="5">
         <v>1245</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7" t="s">
+      <c r="H19" s="103">
+        <v>10.07</v>
+      </c>
+      <c r="I19" s="104">
+        <v>9.92</v>
+      </c>
+      <c r="J19" s="88">
+        <f t="shared" si="0"/>
+        <v>0.98510427010923529</v>
+      </c>
+      <c r="K19" s="95">
+        <v>0.90192583999999998</v>
+      </c>
+      <c r="M19" s="95">
+        <v>0.80210466000000002</v>
+      </c>
+      <c r="O19" s="96">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="96">
+        <v>34560</v>
+      </c>
+      <c r="S19" s="96">
+        <v>3456</v>
+      </c>
+      <c r="U19" s="96">
+        <v>2</v>
+      </c>
+      <c r="W19" s="96">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="68"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="18" t="s">
+      <c r="E20" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="18">
+      <c r="F20" s="76">
         <v>4242</v>
       </c>
-      <c r="H18" s="18">
+      <c r="G20" s="76">
         <v>1550</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="7" t="s">
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AC20" s="96"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="68"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="27"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AC21" s="96"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="68"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="18" t="s">
+      <c r="E22" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="18">
+      <c r="F22" s="76">
         <v>4052</v>
       </c>
-      <c r="H20" s="18">
+      <c r="G22" s="76">
         <v>1542</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7" t="s">
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AC22" s="96"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="68"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
+      <c r="E23" s="67"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AC23" s="96"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B24" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C24" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="19" t="s">
+      <c r="E24" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="19">
+      <c r="F24" s="79">
         <v>2593</v>
       </c>
-      <c r="H22" s="19">
+      <c r="G24" s="79">
         <v>1007</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="8" t="s">
+      <c r="H24" s="91">
+        <v>10.08</v>
+      </c>
+      <c r="I24" s="92">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="J24" s="88">
+        <f t="shared" si="0"/>
+        <v>0.98809523809523814</v>
+      </c>
+      <c r="K24" s="95">
+        <v>0.9409573</v>
+      </c>
+      <c r="M24" s="95">
+        <v>0.86713836</v>
+      </c>
+      <c r="O24" s="96">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="96">
+        <v>72</v>
+      </c>
+      <c r="S24" s="96">
+        <v>7</v>
+      </c>
+      <c r="U24" s="96">
+        <v>0</v>
+      </c>
+      <c r="W24" s="96">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="96">
+        <v>480000</v>
+      </c>
+      <c r="AA24" s="96">
+        <v>48000</v>
+      </c>
+      <c r="AC24" s="96">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="73"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
+      <c r="E25" s="69"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AC25" s="96"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="73"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="19" t="s">
+      <c r="D26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="19">
+      <c r="F26" s="79">
         <v>1372</v>
       </c>
-      <c r="H24" s="19">
+      <c r="G26" s="79">
         <v>905</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="8" t="b">
+      <c r="H26" s="91"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AC26" s="96"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="73"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="29" t="s">
+      <c r="E27" s="69"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AC27" s="96"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B28" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D28" s="7">
         <v>5</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="17" t="s">
+      <c r="E28" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="17">
+      <c r="F28" s="80">
         <v>3783</v>
       </c>
-      <c r="H26" s="17">
+      <c r="G28" s="80">
         <v>1073</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="29"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="H28" s="93">
+        <v>10.09</v>
+      </c>
+      <c r="I28" s="94">
+        <v>9.94</v>
+      </c>
+      <c r="J28" s="88">
+        <f t="shared" si="0"/>
+        <v>0.98513379583746274</v>
+      </c>
+      <c r="K28" s="95">
+        <v>0.80261294000000005</v>
+      </c>
+      <c r="M28" s="95">
+        <v>0.73043495999999997</v>
+      </c>
+      <c r="O28" s="96">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="96">
+        <v>168</v>
+      </c>
+      <c r="S28" s="96">
+        <v>16</v>
+      </c>
+      <c r="U28" s="96">
+        <v>0</v>
+      </c>
+      <c r="W28" s="96">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="70"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9" t="b">
+      <c r="D29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="W29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AC29" s="96"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="W30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AC30" s="96"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="70"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="29"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="9" t="b">
+      <c r="D31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AC31" s="96"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="70"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="29"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AC32" s="96"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" s="70"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="29"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9" t="b">
+      <c r="D33" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AC33" s="96"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" s="70"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="30" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="U34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="Y34" s="96"/>
+      <c r="AA34" s="96"/>
+      <c r="AC34" s="96"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="14" t="s">
+      <c r="E35" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="14">
+      <c r="F35" s="77">
         <v>1493</v>
       </c>
-      <c r="H33" s="14">
+      <c r="G35" s="77">
         <v>683</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="30"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13" t="s">
+      <c r="H35" s="106">
+        <v>10.09</v>
+      </c>
+      <c r="I35" s="105">
+        <v>9.99</v>
+      </c>
+      <c r="J35" s="88">
+        <f t="shared" si="0"/>
+        <v>0.99008919722497524</v>
+      </c>
+      <c r="K35" s="95">
+        <v>0.73759465000000002</v>
+      </c>
+      <c r="M35" s="95">
+        <v>0.64951764000000001</v>
+      </c>
+      <c r="O35" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="96">
+        <v>0</v>
+      </c>
+      <c r="S35" s="96">
+        <v>0</v>
+      </c>
+      <c r="U35" s="96">
+        <v>0</v>
+      </c>
+      <c r="W35" s="96">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="96">
+        <v>1442644</v>
+      </c>
+      <c r="AA35" s="96">
+        <v>144264</v>
+      </c>
+      <c r="AC35" s="96">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="30"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13" t="s">
+      <c r="E36" s="71"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="W36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AC36" s="96"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D37" s="11">
         <v>4</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="30"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
+      <c r="E37" s="71"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="W37" s="96"/>
+      <c r="Y37" s="96"/>
+      <c r="AA37" s="96"/>
+      <c r="AC37" s="96"/>
+    </row>
+    <row r="38" spans="1:29" ht="30" x14ac:dyDescent="0.35">
+      <c r="A38" s="72"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="30"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13" t="s">
+      <c r="E38" s="71"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="AA38" s="96"/>
+      <c r="AC38" s="96"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A39" s="72"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D39" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="30"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
+      <c r="E39" s="71"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AC39" s="96"/>
+    </row>
+    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.35">
+      <c r="A40" s="72"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D40" s="11">
         <v>5</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="14" t="s">
+      <c r="E40" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="14">
+      <c r="F40" s="77">
         <v>991</v>
       </c>
-      <c r="H38" s="14">
+      <c r="G40" s="77">
         <v>870</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="30"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14" t="s">
+      <c r="H40" s="106"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="W40" s="96"/>
+      <c r="Y40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AC40" s="96"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="30"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="b">
+      <c r="D41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="71"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AC41" s="96"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="30"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="13" t="s">
+      <c r="E42" s="71"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="W42" s="96"/>
+      <c r="Y42" s="96"/>
+      <c r="AA42" s="96"/>
+      <c r="AC42" s="96"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D43" s="11">
         <v>20</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="31" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="W43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AC43" s="96"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A44" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B44" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C44" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="15" t="s">
+      <c r="D44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="15">
+      <c r="F44" s="78">
         <v>493</v>
       </c>
-      <c r="H42" s="15">
+      <c r="G44" s="78">
         <v>324</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="31"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="10" t="b">
+      <c r="H44" s="101">
+        <v>10.1</v>
+      </c>
+      <c r="I44" s="102">
+        <v>10</v>
+      </c>
+      <c r="J44" s="88">
+        <f t="shared" si="0"/>
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="K44" s="95">
+        <v>8.0926449999999997E-2</v>
+      </c>
+      <c r="M44" s="95">
+        <v>5.3521140000000002E-2</v>
+      </c>
+      <c r="O44" s="96">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="96">
+        <v>576000</v>
+      </c>
+      <c r="S44" s="96">
+        <v>57600</v>
+      </c>
+      <c r="U44" s="96">
+        <v>116</v>
+      </c>
+      <c r="W44" s="96">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="96">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="96">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="31"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15" t="s">
+      <c r="E45" s="60"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AC45" s="96"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A46" s="61"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="31"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="10" t="s">
+      <c r="E46" s="60"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="W46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AC46" s="96"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A47" s="61"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="31"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="10" t="s">
+      <c r="E47" s="60"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="Y47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AC47" s="96"/>
+    </row>
+    <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.35">
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="15" t="s">
+      <c r="E48" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="15">
+      <c r="F48" s="78">
         <v>430</v>
       </c>
-      <c r="H46" s="15">
+      <c r="G48" s="78">
         <v>333</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="31"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="10" t="s">
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="S48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="W48" s="96"/>
+      <c r="Y48" s="96"/>
+      <c r="AA48" s="96"/>
+      <c r="AC48" s="96"/>
+    </row>
+    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.35">
+      <c r="A49" s="61"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="31"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="10" t="s">
+      <c r="E49" s="60"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="W49" s="96"/>
+      <c r="Y49" s="96"/>
+      <c r="AA49" s="96"/>
+      <c r="AC49" s="96"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A50" s="61"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D50" s="8">
         <v>100</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="31"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="10" t="s">
+      <c r="E50" s="60"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="S50" s="96"/>
+      <c r="U50" s="96"/>
+      <c r="W50" s="96"/>
+      <c r="Y50" s="96"/>
+      <c r="AA50" s="96"/>
+      <c r="AC50" s="96"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A51" s="61"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D51" s="8">
         <v>20</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="15" t="s">
+      <c r="E51" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="15">
+      <c r="F51" s="78">
         <v>846</v>
       </c>
-      <c r="H49" s="15">
+      <c r="G51" s="78">
         <v>360</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="31"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15" t="s">
+      <c r="H51" s="101"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="S51" s="96"/>
+      <c r="U51" s="96"/>
+      <c r="W51" s="96"/>
+      <c r="Y51" s="96"/>
+      <c r="AA51" s="96"/>
+      <c r="AC51" s="96"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="31"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="10" t="s">
+      <c r="E52" s="60"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="W52" s="96"/>
+      <c r="Y52" s="96"/>
+      <c r="AA52" s="96"/>
+      <c r="AC52" s="96"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A53" s="61"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="31"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="10" t="s">
+      <c r="E53" s="60"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="W53" s="96"/>
+      <c r="Y53" s="96"/>
+      <c r="AA53" s="96"/>
+      <c r="AC53" s="96"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A54" s="61"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="16" t="s">
+      <c r="E54" s="60"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="W54" s="96"/>
+      <c r="Y54" s="96"/>
+      <c r="AA54" s="96"/>
+      <c r="AC54" s="96"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A55" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B55" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C55" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="16" t="s">
+      <c r="E55" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="16">
+      <c r="F55" s="55">
         <v>845</v>
       </c>
-      <c r="H53" s="16">
+      <c r="G55" s="55">
         <v>286</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="11" t="s">
+      <c r="H55" s="108"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="W55" s="96"/>
+      <c r="Y55" s="96"/>
+      <c r="AA55" s="96"/>
+      <c r="AC55" s="96"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A56" s="55"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="11" t="s">
+      <c r="E56" s="54"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="W56" s="96"/>
+      <c r="Y56" s="96"/>
+      <c r="AA56" s="96"/>
+      <c r="AC56" s="96"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A57" s="55"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="11" t="s">
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="Y57" s="96"/>
+      <c r="AA57" s="96"/>
+      <c r="AC57" s="96"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A58" s="55"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" customFormat="1">
-      <c r="A57" s="12" t="s">
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="W58" s="96"/>
+      <c r="Y58" s="96"/>
+      <c r="AA58" s="96"/>
+      <c r="AC58" s="96"/>
+    </row>
+    <row r="59" spans="1:29" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B59" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C59" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="12" t="s">
+      <c r="E59" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="12">
+      <c r="F59" s="10">
         <v>2484</v>
       </c>
-      <c r="H57" s="12">
+      <c r="G59" s="10">
         <v>690</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" customFormat="1">
-      <c r="A58" s="33" t="s">
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A60" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B60" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C60" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D60" s="12">
         <v>6</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33" t="s">
+      <c r="E60" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="G58" s="33">
+      <c r="F60" s="59">
         <v>1931</v>
       </c>
-      <c r="H58" s="33">
+      <c r="G60" s="59">
         <v>463</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" customFormat="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33" t="s">
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="59"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="34" t="b">
+      <c r="D61" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-    </row>
-    <row r="60" spans="1:8" customFormat="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-    </row>
-    <row r="61" spans="1:8" customFormat="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33" t="s">
+      <c r="E61" s="58"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="59"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="59"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="34" t="b">
+      <c r="D63" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-    </row>
-    <row r="62" spans="1:8" customFormat="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" spans="1:8" customFormat="1">
-      <c r="A63" s="35" t="s">
+      <c r="E63" s="58"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="59"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="58"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B65" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="36" t="b">
+      <c r="D65" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="35" t="s">
+      <c r="E65" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="35">
+      <c r="F65" s="49">
         <v>12076</v>
       </c>
-      <c r="H63" s="35">
+      <c r="G65" s="49">
         <v>3214</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" customFormat="1">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" s="32"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-    </row>
-    <row r="65" spans="1:8" customFormat="1">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35" t="s">
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="49"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="49"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-    </row>
-    <row r="66" spans="1:8" customFormat="1">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36" t="b">
+      <c r="D67" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="57"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="49"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-    </row>
-    <row r="67" spans="1:8" customFormat="1">
-      <c r="A67" s="37" t="s">
+      <c r="E68" s="57"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B69" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C69" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D69" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="32"/>
-      <c r="F67" s="37" t="s">
+      <c r="E69" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G67" s="37">
+      <c r="F69" s="51">
         <v>3849</v>
       </c>
-      <c r="H67" s="37">
+      <c r="G69" s="51">
         <v>892</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" customFormat="1">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="38" t="s">
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="51"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D70" s="14">
         <v>1.2</v>
       </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-    </row>
-    <row r="69" spans="1:8" customFormat="1">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37" t="s">
+      <c r="E70" s="50"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="40" t="e">
+        <f t="shared" ref="J70:J101" si="1">I70/H70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="51"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="38" t="b">
+      <c r="D71" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-    </row>
-    <row r="70" spans="1:8" customFormat="1">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-    </row>
-    <row r="71" spans="1:8" customFormat="1">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37" t="s">
+      <c r="E71" s="50"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="51"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="51"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-    </row>
-    <row r="72" spans="1:8" customFormat="1">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38" t="b">
+      <c r="D73" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="50"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="51"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E72" s="32"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-    </row>
-    <row r="73" spans="1:8" customFormat="1">
-      <c r="A73" s="39" t="s">
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A75" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B75" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C75" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D75" s="15">
         <v>1</v>
       </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="39" t="s">
+      <c r="E75" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G73" s="39">
+      <c r="F75" s="53">
         <v>16039</v>
       </c>
-      <c r="H73" s="39">
+      <c r="G75" s="53">
         <v>5339</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" customFormat="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39" t="s">
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="53"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="40" t="b">
+      <c r="D76" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-    </row>
-    <row r="75" spans="1:8" customFormat="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="39" t="s">
+      <c r="E76" s="52"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="53"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="39">
+      <c r="F77" s="53">
         <v>15924</v>
       </c>
-      <c r="H75" s="39">
+      <c r="G77" s="53">
         <v>5337</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" customFormat="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="40" t="s">
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="53"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D78" s="15">
         <v>1</v>
       </c>
-      <c r="E76" s="32"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-    </row>
-    <row r="77" spans="1:8" customFormat="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39" t="s">
+      <c r="E78" s="52"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="53"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="40" t="b">
+      <c r="D79" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E77" s="32"/>
-      <c r="F77" s="39" t="s">
+      <c r="E79" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G77" s="39">
+      <c r="F79" s="53">
         <v>16063</v>
       </c>
-      <c r="H77" s="39">
+      <c r="G79" s="53">
         <v>5346</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" customFormat="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-    </row>
-    <row r="79" spans="1:8" customFormat="1">
-      <c r="A79" s="41" t="s">
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="53"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="52"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A81" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B81" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C81" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D81" s="16">
         <v>1</v>
       </c>
-      <c r="E79" s="32"/>
-      <c r="F79" s="41" t="s">
+      <c r="E81" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="G79" s="41">
+      <c r="F81" s="48">
         <v>16017</v>
       </c>
-      <c r="H79" s="41">
+      <c r="G81" s="48">
         <v>5363</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" customFormat="1">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41" t="s">
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="48"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="42" t="b">
+      <c r="D82" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-    </row>
-    <row r="81" spans="1:8" customFormat="1">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-    </row>
-    <row r="82" spans="1:8" customFormat="1">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="42" t="s">
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="48"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="48"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D84" s="16">
         <v>1</v>
       </c>
-      <c r="E82" s="32"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-    </row>
-    <row r="83" spans="1:8" customFormat="1">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41" t="s">
+      <c r="E84" s="47"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="48"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="42" t="b">
+      <c r="D85" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E83" s="32"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-    </row>
-    <row r="84" spans="1:8" customFormat="1">
-      <c r="A84" s="41"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="32"/>
-      <c r="F84" s="41" t="s">
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="48"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="41">
+      <c r="F86" s="48">
         <v>15947</v>
       </c>
-      <c r="H84" s="41">
+      <c r="G86" s="48">
         <v>5358</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" customFormat="1">
-      <c r="A85" s="41"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41" t="s">
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="48"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D87" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-    </row>
-    <row r="86" spans="1:8" customFormat="1">
-      <c r="A86" s="41"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="42" t="s">
+      <c r="E87" s="47"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="48"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E86" s="32"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-    </row>
-    <row r="87" spans="1:8" customFormat="1">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41" t="s">
+      <c r="E88" s="47"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="48"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D89" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="1:8" customFormat="1">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="42" t="s">
+      <c r="E89" s="47"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="48"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E88" s="32"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-    </row>
-    <row r="89" spans="1:8" customFormat="1">
-      <c r="A89" s="20" t="s">
+      <c r="E90" s="47"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+      <c r="A91" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B91" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C91" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D91" s="2">
         <v>1</v>
       </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="20" t="s">
+      <c r="E91" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G89" s="20">
+      <c r="F91" s="45">
         <v>15974</v>
       </c>
-      <c r="H89" s="20">
+      <c r="G91" s="45">
         <v>5355</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" customFormat="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20" t="s">
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="45"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D90" s="4" t="b">
+      <c r="D92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-    </row>
-    <row r="91" spans="1:8" customFormat="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="32"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-    </row>
-    <row r="92" spans="1:8" customFormat="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="4" t="s">
+      <c r="E92" s="46"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="45"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="46"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D94" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="32"/>
-      <c r="F92" s="20" t="s">
+      <c r="E94" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="G92" s="20">
+      <c r="F94" s="45">
         <v>16034</v>
       </c>
-      <c r="H92" s="20">
+      <c r="G94" s="45">
         <v>5341</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" customFormat="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20" t="s">
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="4" t="b">
+      <c r="D95" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="1:8" customFormat="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="32"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="1:8" customFormat="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20" t="s">
+      <c r="E95" s="46"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="46"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="45"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D95" s="4" t="b">
+      <c r="D97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E95" s="32"/>
-      <c r="F95" s="20" t="s">
+      <c r="E97" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G95" s="20">
+      <c r="F97" s="45">
         <v>15977</v>
       </c>
-      <c r="H95" s="20">
+      <c r="G97" s="45">
         <v>5337</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" customFormat="1">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="1:8" customFormat="1">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20" t="s">
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="45"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="46"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="45"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D97" s="4" t="b">
+      <c r="D99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E97" s="32"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="1:8" customFormat="1">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="32"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="45"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="46"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="J101" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A102" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H102" s="39">
+        <v>37.96</v>
+      </c>
+      <c r="I102" s="39">
+        <v>23.91</v>
+      </c>
+      <c r="J102" s="40">
+        <f>I102/H102</f>
+        <v>0.62987355110642784</v>
+      </c>
+      <c r="K102" s="95">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="L102" s="95"/>
+      <c r="M102" s="95">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N102" s="96"/>
+      <c r="O102" s="96">
+        <v>2165</v>
+      </c>
+      <c r="P102" s="96"/>
+      <c r="Q102" s="97">
+        <v>80313680</v>
+      </c>
+      <c r="R102" s="97"/>
+      <c r="S102" s="97">
+        <v>2170640</v>
+      </c>
+      <c r="T102" s="97"/>
+      <c r="U102" s="97">
+        <v>197816</v>
+      </c>
+      <c r="V102" s="97"/>
+      <c r="W102" s="97">
+        <v>3370</v>
+      </c>
+      <c r="X102" s="97"/>
+      <c r="Y102" s="97">
+        <v>467131637</v>
+      </c>
+      <c r="Z102" s="97"/>
+      <c r="AA102" s="97">
+        <v>12625179</v>
+      </c>
+      <c r="AB102" s="97"/>
+      <c r="AC102" s="97">
+        <v>1150570</v>
+      </c>
+      <c r="AD102" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="F67:F72"/>
-    <mergeCell ref="G67:G72"/>
-    <mergeCell ref="H67:H72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="297">
+    <mergeCell ref="W55:W58"/>
+    <mergeCell ref="Y55:Y58"/>
+    <mergeCell ref="AA55:AA58"/>
+    <mergeCell ref="AC55:AC58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="O55:O58"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="S55:S58"/>
+    <mergeCell ref="U55:U58"/>
+    <mergeCell ref="W28:W34"/>
+    <mergeCell ref="Y28:Y34"/>
+    <mergeCell ref="AA28:AA34"/>
+    <mergeCell ref="AC28:AC34"/>
+    <mergeCell ref="H35:H43"/>
+    <mergeCell ref="I35:I43"/>
+    <mergeCell ref="J35:J43"/>
+    <mergeCell ref="K35:K43"/>
+    <mergeCell ref="M35:M43"/>
+    <mergeCell ref="O35:O43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="U35:U43"/>
+    <mergeCell ref="W35:W43"/>
+    <mergeCell ref="Y35:Y43"/>
+    <mergeCell ref="AA35:AA43"/>
+    <mergeCell ref="AC35:AC43"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="O28:O34"/>
+    <mergeCell ref="Q28:Q34"/>
+    <mergeCell ref="S28:S34"/>
+    <mergeCell ref="J44:J54"/>
+    <mergeCell ref="K44:K54"/>
+    <mergeCell ref="M44:M54"/>
+    <mergeCell ref="O44:O54"/>
+    <mergeCell ref="Q44:Q54"/>
+    <mergeCell ref="S44:S54"/>
+    <mergeCell ref="U44:U54"/>
+    <mergeCell ref="W44:W54"/>
+    <mergeCell ref="Y44:Y54"/>
+    <mergeCell ref="AC19:AC23"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="AC102:AD102"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="O8:O13"/>
+    <mergeCell ref="Q8:Q13"/>
+    <mergeCell ref="S8:S13"/>
+    <mergeCell ref="U8:U13"/>
+    <mergeCell ref="W8:W13"/>
+    <mergeCell ref="Y8:Y13"/>
+    <mergeCell ref="AA8:AA13"/>
+    <mergeCell ref="AC8:AC13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="AC24:AC27"/>
+    <mergeCell ref="AA44:AA54"/>
+    <mergeCell ref="AC44:AC54"/>
+    <mergeCell ref="AC14:AC18"/>
+    <mergeCell ref="AA102:AB102"/>
+    <mergeCell ref="AA14:AA18"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="S24:S27"/>
+    <mergeCell ref="U24:U27"/>
+    <mergeCell ref="W24:W27"/>
+    <mergeCell ref="Y24:Y27"/>
+    <mergeCell ref="AA24:AA27"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="U14:U18"/>
+    <mergeCell ref="W14:W18"/>
+    <mergeCell ref="Y14:Y18"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="U102:V102"/>
+    <mergeCell ref="W102:X102"/>
+    <mergeCell ref="Y102:Z102"/>
+    <mergeCell ref="U19:U23"/>
+    <mergeCell ref="W19:W23"/>
+    <mergeCell ref="Y19:Y23"/>
+    <mergeCell ref="AA19:AA23"/>
+    <mergeCell ref="U28:U34"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G35:G39"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="H44:H54"/>
+    <mergeCell ref="I44:I54"/>
     <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H26:H32"/>
-    <mergeCell ref="H33:H37"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B91:B100"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="G81:G85"/>
+    <mergeCell ref="F86:F90"/>
+    <mergeCell ref="G86:G90"/>
+    <mergeCell ref="A91:A100"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E81:E85"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="G91:G93"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="F97:F100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/glMark2用例分析及测试结果.xlsx
+++ b/xlsx/glMark2用例分析及测试结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/OpenGL项目/OpenGL-Notes/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12788F06-6AC2-434E-B341-0F99C14325F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4E595-1AE7-DC4C-824F-B7E9F4DDC104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{48F08D8C-56CD-F947-A67E-A1D29A7856C9}"/>
   </bookViews>
@@ -640,6 +640,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>RADEONTOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -661,10 +665,6 @@
   </si>
   <si>
     <t>kernel=1,1,1,1,1;1,1,1,1,1;1,1,1,1,1;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计/平均</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -900,6 +900,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -957,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,9 +1072,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="18" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1081,102 +1093,99 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="10" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,6 +1338,51 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1663,11 +1717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16366C72-5762-E64F-A88F-D572B4F232BB}">
   <dimension ref="A1:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W115" sqref="W115"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1691,654 +1745,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="39" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="17.25" customHeight="1">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="124" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="126"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.25" customHeight="1">
+      <c r="A3" s="132" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="17.25" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="39"/>
-    </row>
-    <row r="3" spans="1:31" ht="17.25" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41">
-        <f>AVERAGE(F4:F100)</f>
-        <v>6299.515151515152</v>
-      </c>
-      <c r="G3" s="41">
-        <f>AVERAGE(G4:G100)</f>
-        <v>2156.969696969697</v>
-      </c>
-      <c r="H3" s="41">
-        <f>SUM(H4:H100)</f>
-        <v>161.989035293</v>
-      </c>
-      <c r="I3" s="41">
-        <f>SUM(I4:I100)</f>
-        <v>160.02071527099997</v>
-      </c>
-      <c r="J3" s="33">
-        <f>AVERAGE(J4:J100)</f>
-        <v>0.98755970110160485</v>
-      </c>
-      <c r="K3" s="33">
-        <f>AVERAGE(K4:K100)</f>
-        <v>0.78166267999999994</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33">
-        <f t="shared" ref="M3" si="0">AVERAGE(M4:M100)</f>
-        <v>0.70440224624999992</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="39">
-        <f>AVERAGE(O4:O100)</f>
-        <v>3.9375</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39">
-        <f t="shared" ref="P3:R3" si="1">AVERAGE(Q4:Q100)</f>
-        <v>1586854.25</v>
-      </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39">
-        <f t="shared" ref="S3" si="2">AVERAGE(S4:S100)</f>
-        <v>158701.8125</v>
-      </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39">
-        <f t="shared" ref="T3:U3" si="3">AVERAGE(U4:U100)</f>
-        <v>538.25</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39">
-        <f t="shared" ref="W3:X3" si="4">AVERAGE(W4:W100)</f>
-        <v>3.625</v>
-      </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39">
-        <f t="shared" ref="Y3" si="5">AVERAGE(Y4:Y100)</f>
-        <v>790085.25</v>
-      </c>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39">
-        <f t="shared" ref="Z3:AA3" si="6">AVERAGE(AA4:AA100)</f>
-        <v>79008.375</v>
-      </c>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39">
-        <f t="shared" ref="AC3:AD3" si="7">AVERAGE(AC4:AC100)</f>
-        <v>157.5625</v>
-      </c>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133">
+        <v>1127</v>
+      </c>
+      <c r="H3" s="133">
+        <v>331.99</v>
+      </c>
+      <c r="I3" s="133">
+        <v>329.27</v>
+      </c>
+      <c r="J3" s="134">
+        <f>I3/H3</f>
+        <v>0.9918069821380161</v>
+      </c>
+      <c r="K3" s="135">
+        <v>0.77696383999999996</v>
+      </c>
+      <c r="L3" s="132"/>
+      <c r="M3" s="136">
+        <v>0.65756912000000001</v>
+      </c>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133">
+        <v>92</v>
+      </c>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="132">
+        <v>35253452</v>
+      </c>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132">
+        <v>106505</v>
+      </c>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132">
+        <v>94</v>
+      </c>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132">
+        <v>77</v>
+      </c>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132">
+        <v>17205736</v>
+      </c>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132">
+        <v>51981</v>
+      </c>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="127">
         <v>4560</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="127">
         <v>1543</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="127">
         <v>10.08</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="127">
         <v>9.93</v>
       </c>
-      <c r="J4" s="80">
-        <f t="shared" ref="J4:J69" si="8">I4/H4</f>
+      <c r="J4" s="130">
+        <f t="shared" ref="J4:J69" si="0">I4/H4</f>
         <v>0.98511904761904756</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="131">
         <v>0.89064407000000001</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="73">
+      <c r="L4" s="129"/>
+      <c r="M4" s="131">
         <v>0.79132287000000001</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="68">
+      <c r="N4" s="129"/>
+      <c r="O4" s="127">
         <v>2</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="68">
+      <c r="P4" s="129"/>
+      <c r="Q4" s="127">
         <v>516384</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="68">
+      <c r="R4" s="129"/>
+      <c r="S4" s="127">
         <v>51638</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="68">
+      <c r="T4" s="129"/>
+      <c r="U4" s="127">
         <v>33</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="68">
-        <v>0</v>
-      </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="68">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="127">
+        <v>0</v>
+      </c>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="127">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="68"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="38" t="b">
+      <c r="A5" s="66"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="68"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="85" t="s">
+      <c r="D6" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="66">
         <v>4358</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="66">
         <v>1540</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="68"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="38" t="b">
+      <c r="A7" s="66"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="86" t="s">
+      <c r="D8" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="67">
         <v>4093</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="67">
         <v>1402</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="77">
         <v>10.079015981</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="67">
         <v>9.93</v>
       </c>
-      <c r="J8" s="81">
-        <f t="shared" si="8"/>
+      <c r="J8" s="79">
+        <f t="shared" si="0"/>
         <v>0.98521522524808869</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="73">
         <v>0.89524583999999996</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="75">
+      <c r="L8" s="39"/>
+      <c r="M8" s="73">
         <v>0.79576237000000005</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="69">
+      <c r="N8" s="39"/>
+      <c r="O8" s="67">
         <v>3</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="69">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="67">
         <v>1152</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="69">
+      <c r="R8" s="39"/>
+      <c r="S8" s="67">
         <v>384</v>
       </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="69">
-        <v>0</v>
-      </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="69">
+      <c r="T8" s="39"/>
+      <c r="U8" s="67">
+        <v>0</v>
+      </c>
+      <c r="V8" s="39"/>
+      <c r="W8" s="67">
         <v>1</v>
       </c>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="69">
+      <c r="X8" s="39"/>
+      <c r="Y8" s="67">
         <v>262144</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="69">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="67">
         <v>26214</v>
       </c>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="69">
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="67">
         <v>18</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="69"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="40" t="b">
+      <c r="A9" s="67"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="69"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="67">
         <v>4048</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="67">
         <v>1400</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="69"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="40" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="69"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="40" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="67">
         <v>4058</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="67">
         <v>1404</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="69"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="40" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
     </row>
     <row r="14" spans="1:31" ht="17">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="91" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -2347,108 +2385,108 @@
       <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="68">
         <v>3723</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="68">
         <v>1420</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="68">
         <v>10.1</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="68">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J14" s="82">
-        <f t="shared" si="8"/>
+      <c r="J14" s="80">
+        <f t="shared" si="0"/>
         <v>0.98514851485148514</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="74">
         <v>0.90177209999999997</v>
       </c>
       <c r="L14" s="22"/>
-      <c r="M14" s="76">
+      <c r="M14" s="74">
         <v>0.80138301999999995</v>
       </c>
       <c r="N14" s="22"/>
-      <c r="O14" s="70">
+      <c r="O14" s="68">
         <v>2</v>
       </c>
       <c r="P14" s="22"/>
-      <c r="Q14" s="70">
+      <c r="Q14" s="68">
         <v>1033056</v>
       </c>
       <c r="R14" s="22"/>
-      <c r="S14" s="70">
+      <c r="S14" s="68">
         <v>103305</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="70">
+      <c r="U14" s="68">
         <v>71</v>
       </c>
       <c r="V14" s="22"/>
-      <c r="W14" s="70">
+      <c r="W14" s="68">
         <v>0</v>
       </c>
       <c r="X14" s="22"/>
-      <c r="Y14" s="70">
+      <c r="Y14" s="68">
         <v>0</v>
       </c>
       <c r="Z14" s="22"/>
-      <c r="AA14" s="70">
+      <c r="AA14" s="68">
         <v>0</v>
       </c>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="70">
+      <c r="AC14" s="68">
         <v>0</v>
       </c>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="70"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="70"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="22"/>
-      <c r="M15" s="70"/>
+      <c r="M15" s="68"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="70"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="70"/>
+      <c r="Q15" s="68"/>
       <c r="R15" s="22"/>
-      <c r="S15" s="70"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="22"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="22"/>
-      <c r="W15" s="70"/>
+      <c r="W15" s="68"/>
       <c r="X15" s="22"/>
-      <c r="Y15" s="70"/>
+      <c r="Y15" s="68"/>
       <c r="Z15" s="22"/>
-      <c r="AA15" s="70"/>
+      <c r="AA15" s="68"/>
       <c r="AB15" s="22"/>
-      <c r="AC15" s="70"/>
+      <c r="AC15" s="68"/>
       <c r="AD15" s="22"/>
       <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="1:31" ht="17">
-      <c r="A16" s="70"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="22" t="s">
         <v>21</v>
       </c>
@@ -2461,35 +2499,35 @@
       <c r="G16" s="22">
         <v>1417</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="70"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="70"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="70"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="70"/>
+      <c r="Q16" s="68"/>
       <c r="R16" s="22"/>
-      <c r="S16" s="70"/>
+      <c r="S16" s="68"/>
       <c r="T16" s="22"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="70"/>
+      <c r="W16" s="68"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="70"/>
+      <c r="Y16" s="68"/>
       <c r="Z16" s="22"/>
-      <c r="AA16" s="70"/>
+      <c r="AA16" s="68"/>
       <c r="AB16" s="22"/>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="68"/>
       <c r="AD16" s="22"/>
       <c r="AE16" s="22"/>
     </row>
     <row r="17" spans="1:31" ht="17">
-      <c r="A17" s="70"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
@@ -2502,35 +2540,35 @@
       <c r="G17" s="22">
         <v>1421</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="70"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="70"/>
+      <c r="M17" s="68"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="70"/>
+      <c r="O17" s="68"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="70"/>
+      <c r="Q17" s="68"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="70"/>
+      <c r="S17" s="68"/>
       <c r="T17" s="22"/>
-      <c r="U17" s="70"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="22"/>
-      <c r="W17" s="70"/>
+      <c r="W17" s="68"/>
       <c r="X17" s="22"/>
-      <c r="Y17" s="70"/>
+      <c r="Y17" s="68"/>
       <c r="Z17" s="22"/>
-      <c r="AA17" s="70"/>
+      <c r="AA17" s="68"/>
       <c r="AB17" s="22"/>
-      <c r="AC17" s="70"/>
+      <c r="AC17" s="68"/>
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
     </row>
     <row r="18" spans="1:31" ht="17">
-      <c r="A18" s="70"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="22" t="s">
         <v>23</v>
       </c>
@@ -2543,39 +2581,39 @@
       <c r="G18" s="22">
         <v>1420</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="70"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="70"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="70"/>
+      <c r="O18" s="68"/>
       <c r="P18" s="22"/>
-      <c r="Q18" s="70"/>
+      <c r="Q18" s="68"/>
       <c r="R18" s="22"/>
-      <c r="S18" s="70"/>
+      <c r="S18" s="68"/>
       <c r="T18" s="22"/>
-      <c r="U18" s="70"/>
+      <c r="U18" s="68"/>
       <c r="V18" s="22"/>
-      <c r="W18" s="70"/>
+      <c r="W18" s="68"/>
       <c r="X18" s="22"/>
-      <c r="Y18" s="70"/>
+      <c r="Y18" s="68"/>
       <c r="Z18" s="22"/>
-      <c r="AA18" s="70"/>
+      <c r="AA18" s="68"/>
       <c r="AB18" s="22"/>
-      <c r="AC18" s="70"/>
+      <c r="AC18" s="68"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
     </row>
     <row r="19" spans="1:31" ht="17">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="88" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -2590,402 +2628,402 @@
       <c r="G19" s="21">
         <v>1245</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="56">
         <v>10.07</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="56">
         <v>9.92</v>
       </c>
-      <c r="J19" s="59">
-        <f t="shared" si="8"/>
+      <c r="J19" s="57">
+        <f t="shared" si="0"/>
         <v>0.98510427010923529</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="58">
         <v>0.90192583999999998</v>
       </c>
       <c r="L19" s="21"/>
-      <c r="M19" s="60">
+      <c r="M19" s="58">
         <v>0.80210466000000002</v>
       </c>
       <c r="N19" s="21"/>
-      <c r="O19" s="58">
+      <c r="O19" s="56">
         <v>2</v>
       </c>
       <c r="P19" s="21"/>
-      <c r="Q19" s="58">
+      <c r="Q19" s="56">
         <v>34560</v>
       </c>
       <c r="R19" s="21"/>
-      <c r="S19" s="58">
+      <c r="S19" s="56">
         <v>3456</v>
       </c>
       <c r="T19" s="21"/>
-      <c r="U19" s="58">
+      <c r="U19" s="56">
         <v>2</v>
       </c>
       <c r="V19" s="21"/>
-      <c r="W19" s="58">
+      <c r="W19" s="56">
         <v>0</v>
       </c>
       <c r="X19" s="21"/>
-      <c r="Y19" s="58">
+      <c r="Y19" s="56">
         <v>0</v>
       </c>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="58">
+      <c r="AA19" s="56">
         <v>0</v>
       </c>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="58">
+      <c r="AC19" s="56">
         <v>0</v>
       </c>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="58"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="56">
         <v>4242</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="56">
         <v>1550</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="58"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="58"/>
+      <c r="O20" s="56"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="58"/>
+      <c r="Q20" s="56"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="58"/>
+      <c r="S20" s="56"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="58"/>
+      <c r="U20" s="56"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="58"/>
+      <c r="W20" s="56"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="58"/>
+      <c r="Y20" s="56"/>
       <c r="Z20" s="21"/>
-      <c r="AA20" s="58"/>
+      <c r="AA20" s="56"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="58"/>
+      <c r="AC20" s="56"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="58"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="58"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="58"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="56"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="58"/>
+      <c r="Q21" s="56"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="58"/>
+      <c r="S21" s="56"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="58"/>
+      <c r="U21" s="56"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="58"/>
+      <c r="W21" s="56"/>
       <c r="X21" s="21"/>
-      <c r="Y21" s="58"/>
+      <c r="Y21" s="56"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="58"/>
+      <c r="AA21" s="56"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="58"/>
+      <c r="AC21" s="56"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="58"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="56">
         <v>4052</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="56">
         <v>1542</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="58"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="21"/>
-      <c r="O22" s="58"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="58"/>
+      <c r="Q22" s="56"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="58"/>
+      <c r="S22" s="56"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="58"/>
+      <c r="U22" s="56"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="58"/>
+      <c r="W22" s="56"/>
       <c r="X22" s="21"/>
-      <c r="Y22" s="58"/>
+      <c r="Y22" s="56"/>
       <c r="Z22" s="21"/>
-      <c r="AA22" s="58"/>
+      <c r="AA22" s="56"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="58"/>
+      <c r="AC22" s="56"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="21"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="58"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="58"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="56"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="58"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="58"/>
+      <c r="O23" s="56"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="58"/>
+      <c r="Q23" s="56"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="58"/>
+      <c r="S23" s="56"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="58"/>
+      <c r="U23" s="56"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="58"/>
+      <c r="W23" s="56"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="58"/>
+      <c r="Y23" s="56"/>
       <c r="Z23" s="21"/>
-      <c r="AA23" s="58"/>
+      <c r="AA23" s="56"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="58"/>
+      <c r="AC23" s="56"/>
       <c r="AD23" s="21"/>
       <c r="AE23" s="21"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="89" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="69">
         <v>2593</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="69">
         <v>1007</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="69">
         <v>10.08</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="69">
         <v>9.9600000000000009</v>
       </c>
-      <c r="J24" s="83">
-        <f t="shared" si="8"/>
+      <c r="J24" s="81">
+        <f t="shared" si="0"/>
         <v>0.98809523809523814</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="75">
         <v>0.9409573</v>
       </c>
       <c r="L24" s="23"/>
-      <c r="M24" s="77">
+      <c r="M24" s="75">
         <v>0.86713836</v>
       </c>
       <c r="N24" s="23"/>
-      <c r="O24" s="71">
+      <c r="O24" s="69">
         <v>1</v>
       </c>
       <c r="P24" s="23"/>
-      <c r="Q24" s="71">
+      <c r="Q24" s="69">
         <v>72</v>
       </c>
       <c r="R24" s="23"/>
-      <c r="S24" s="71">
+      <c r="S24" s="69">
         <v>7</v>
       </c>
       <c r="T24" s="23"/>
-      <c r="U24" s="71">
+      <c r="U24" s="69">
         <v>0</v>
       </c>
       <c r="V24" s="23"/>
-      <c r="W24" s="71">
+      <c r="W24" s="69">
         <v>1</v>
       </c>
       <c r="X24" s="23"/>
-      <c r="Y24" s="71">
+      <c r="Y24" s="69">
         <v>480000</v>
       </c>
       <c r="Z24" s="23"/>
-      <c r="AA24" s="71">
+      <c r="AA24" s="69">
         <v>48000</v>
       </c>
       <c r="AB24" s="23"/>
-      <c r="AC24" s="71">
+      <c r="AC24" s="69">
         <v>46</v>
       </c>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="71"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="71"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="71"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="71"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="23"/>
-      <c r="Q25" s="71"/>
+      <c r="Q25" s="69"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="71"/>
+      <c r="S25" s="69"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="71"/>
+      <c r="U25" s="69"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="71"/>
+      <c r="W25" s="69"/>
       <c r="X25" s="23"/>
-      <c r="Y25" s="71"/>
+      <c r="Y25" s="69"/>
       <c r="Z25" s="23"/>
-      <c r="AA25" s="71"/>
+      <c r="AA25" s="69"/>
       <c r="AB25" s="23"/>
-      <c r="AC25" s="71"/>
+      <c r="AC25" s="69"/>
       <c r="AD25" s="23"/>
       <c r="AE25" s="23"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="71"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="E26" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="71">
+      <c r="E26" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="69">
         <v>1372</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="69">
         <v>905</v>
       </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="71"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="71"/>
+      <c r="M26" s="69"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="71"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="23"/>
-      <c r="Q26" s="71"/>
+      <c r="Q26" s="69"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="71"/>
+      <c r="S26" s="69"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="71"/>
+      <c r="U26" s="69"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="71"/>
+      <c r="W26" s="69"/>
       <c r="X26" s="23"/>
-      <c r="Y26" s="71"/>
+      <c r="Y26" s="69"/>
       <c r="Z26" s="23"/>
-      <c r="AA26" s="71"/>
+      <c r="AA26" s="69"/>
       <c r="AB26" s="23"/>
-      <c r="AC26" s="71"/>
+      <c r="AC26" s="69"/>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="71"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="71"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="71"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="71"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="23"/>
-      <c r="Q27" s="71"/>
+      <c r="Q27" s="69"/>
       <c r="R27" s="23"/>
-      <c r="S27" s="71"/>
+      <c r="S27" s="69"/>
       <c r="T27" s="23"/>
-      <c r="U27" s="71"/>
+      <c r="U27" s="69"/>
       <c r="V27" s="23"/>
-      <c r="W27" s="71"/>
+      <c r="W27" s="69"/>
       <c r="X27" s="23"/>
-      <c r="Y27" s="71"/>
+      <c r="Y27" s="69"/>
       <c r="Z27" s="23"/>
-      <c r="AA27" s="71"/>
+      <c r="AA27" s="69"/>
       <c r="AB27" s="23"/>
-      <c r="AC27" s="71"/>
+      <c r="AC27" s="69"/>
       <c r="AD27" s="23"/>
       <c r="AE27" s="23"/>
     </row>
     <row r="28" spans="1:31" ht="17">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="82" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -2994,1338 +3032,1338 @@
       <c r="D28" s="25">
         <v>5</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="52">
         <v>3783</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="52">
         <v>1073</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28" s="52">
         <v>10.09</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="52">
         <v>9.94</v>
       </c>
-      <c r="J28" s="62">
-        <f t="shared" si="8"/>
+      <c r="J28" s="60">
+        <f t="shared" si="0"/>
         <v>0.98513379583746274</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="59">
         <v>0.80261294000000005</v>
       </c>
       <c r="L28" s="25"/>
-      <c r="M28" s="61">
+      <c r="M28" s="59">
         <v>0.73043495999999997</v>
       </c>
       <c r="N28" s="25"/>
-      <c r="O28" s="54">
+      <c r="O28" s="52">
         <v>2</v>
       </c>
       <c r="P28" s="25"/>
-      <c r="Q28" s="54">
+      <c r="Q28" s="52">
         <v>168</v>
       </c>
       <c r="R28" s="25"/>
-      <c r="S28" s="54">
+      <c r="S28" s="52">
         <v>16</v>
       </c>
       <c r="T28" s="25"/>
-      <c r="U28" s="54">
+      <c r="U28" s="52">
         <v>0</v>
       </c>
       <c r="V28" s="25"/>
-      <c r="W28" s="54">
+      <c r="W28" s="52">
         <v>0</v>
       </c>
       <c r="X28" s="25"/>
-      <c r="Y28" s="54">
+      <c r="Y28" s="52">
         <v>0</v>
       </c>
       <c r="Z28" s="25"/>
-      <c r="AA28" s="54">
+      <c r="AA28" s="52">
         <v>0</v>
       </c>
       <c r="AB28" s="25"/>
-      <c r="AC28" s="54">
+      <c r="AC28" s="52">
         <v>0</v>
       </c>
       <c r="AD28" s="25"/>
       <c r="AE28" s="25"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="54"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="54"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="25"/>
-      <c r="M29" s="54"/>
+      <c r="M29" s="52"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="54"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="54"/>
+      <c r="Q29" s="52"/>
       <c r="R29" s="25"/>
-      <c r="S29" s="54"/>
+      <c r="S29" s="52"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="54"/>
+      <c r="U29" s="52"/>
       <c r="V29" s="25"/>
-      <c r="W29" s="54"/>
+      <c r="W29" s="52"/>
       <c r="X29" s="25"/>
-      <c r="Y29" s="54"/>
+      <c r="Y29" s="52"/>
       <c r="Z29" s="25"/>
-      <c r="AA29" s="54"/>
+      <c r="AA29" s="52"/>
       <c r="AB29" s="25"/>
-      <c r="AC29" s="54"/>
+      <c r="AC29" s="52"/>
       <c r="AD29" s="25"/>
       <c r="AE29" s="25"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="54"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="54"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="25"/>
-      <c r="M30" s="54"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="54"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="54"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="25"/>
-      <c r="S30" s="54"/>
+      <c r="S30" s="52"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="54"/>
+      <c r="U30" s="52"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="54"/>
+      <c r="W30" s="52"/>
       <c r="X30" s="25"/>
-      <c r="Y30" s="54"/>
+      <c r="Y30" s="52"/>
       <c r="Z30" s="25"/>
-      <c r="AA30" s="54"/>
+      <c r="AA30" s="52"/>
       <c r="AB30" s="25"/>
-      <c r="AC30" s="54"/>
+      <c r="AC30" s="52"/>
       <c r="AD30" s="25"/>
       <c r="AE30" s="25"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="54"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="54"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="25"/>
-      <c r="M31" s="54"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="25"/>
-      <c r="O31" s="54"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="54"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="25"/>
-      <c r="S31" s="54"/>
+      <c r="S31" s="52"/>
       <c r="T31" s="25"/>
-      <c r="U31" s="54"/>
+      <c r="U31" s="52"/>
       <c r="V31" s="25"/>
-      <c r="W31" s="54"/>
+      <c r="W31" s="52"/>
       <c r="X31" s="25"/>
-      <c r="Y31" s="54"/>
+      <c r="Y31" s="52"/>
       <c r="Z31" s="25"/>
-      <c r="AA31" s="54"/>
+      <c r="AA31" s="52"/>
       <c r="AB31" s="25"/>
-      <c r="AC31" s="54"/>
+      <c r="AC31" s="52"/>
       <c r="AD31" s="25"/>
       <c r="AE31" s="25"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="54"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="54"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="25"/>
-      <c r="M32" s="54"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="54"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="54"/>
+      <c r="Q32" s="52"/>
       <c r="R32" s="25"/>
-      <c r="S32" s="54"/>
+      <c r="S32" s="52"/>
       <c r="T32" s="25"/>
-      <c r="U32" s="54"/>
+      <c r="U32" s="52"/>
       <c r="V32" s="25"/>
-      <c r="W32" s="54"/>
+      <c r="W32" s="52"/>
       <c r="X32" s="25"/>
-      <c r="Y32" s="54"/>
+      <c r="Y32" s="52"/>
       <c r="Z32" s="25"/>
-      <c r="AA32" s="54"/>
+      <c r="AA32" s="52"/>
       <c r="AB32" s="25"/>
-      <c r="AC32" s="54"/>
+      <c r="AC32" s="52"/>
       <c r="AD32" s="25"/>
       <c r="AE32" s="25"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="54"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="54"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="25"/>
-      <c r="M33" s="54"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="54"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="54"/>
+      <c r="Q33" s="52"/>
       <c r="R33" s="25"/>
-      <c r="S33" s="54"/>
+      <c r="S33" s="52"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="54"/>
+      <c r="U33" s="52"/>
       <c r="V33" s="25"/>
-      <c r="W33" s="54"/>
+      <c r="W33" s="52"/>
       <c r="X33" s="25"/>
-      <c r="Y33" s="54"/>
+      <c r="Y33" s="52"/>
       <c r="Z33" s="25"/>
-      <c r="AA33" s="54"/>
+      <c r="AA33" s="52"/>
       <c r="AB33" s="25"/>
-      <c r="AC33" s="54"/>
+      <c r="AC33" s="52"/>
       <c r="AD33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="54"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="54"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="54"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="54"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="54"/>
+      <c r="Q34" s="52"/>
       <c r="R34" s="25"/>
-      <c r="S34" s="54"/>
+      <c r="S34" s="52"/>
       <c r="T34" s="25"/>
-      <c r="U34" s="54"/>
+      <c r="U34" s="52"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="54"/>
+      <c r="W34" s="52"/>
       <c r="X34" s="25"/>
-      <c r="Y34" s="54"/>
+      <c r="Y34" s="52"/>
       <c r="Z34" s="25"/>
-      <c r="AA34" s="54"/>
+      <c r="AA34" s="52"/>
       <c r="AB34" s="25"/>
-      <c r="AC34" s="54"/>
+      <c r="AC34" s="52"/>
       <c r="AD34" s="25"/>
       <c r="AE34" s="25"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="53">
         <v>1493</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="53">
         <v>683</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="53">
         <v>10.09</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="53">
         <v>9.99</v>
       </c>
-      <c r="J35" s="56">
-        <f t="shared" si="8"/>
+      <c r="J35" s="54">
+        <f t="shared" si="0"/>
         <v>0.99008919722497524</v>
       </c>
-      <c r="K35" s="57">
+      <c r="K35" s="55">
         <v>0.73759465000000002</v>
       </c>
       <c r="L35" s="20"/>
-      <c r="M35" s="57">
+      <c r="M35" s="55">
         <v>0.64951764000000001</v>
       </c>
       <c r="N35" s="20"/>
-      <c r="O35" s="55">
+      <c r="O35" s="53">
         <v>0</v>
       </c>
       <c r="P35" s="20"/>
-      <c r="Q35" s="55">
+      <c r="Q35" s="53">
         <v>0</v>
       </c>
       <c r="R35" s="20"/>
-      <c r="S35" s="55">
+      <c r="S35" s="53">
         <v>0</v>
       </c>
       <c r="T35" s="20"/>
-      <c r="U35" s="55">
+      <c r="U35" s="53">
         <v>0</v>
       </c>
       <c r="V35" s="20"/>
-      <c r="W35" s="55">
+      <c r="W35" s="53">
         <v>8</v>
       </c>
       <c r="X35" s="20"/>
-      <c r="Y35" s="55">
+      <c r="Y35" s="53">
         <v>1442644</v>
       </c>
       <c r="Z35" s="20"/>
-      <c r="AA35" s="55">
+      <c r="AA35" s="53">
         <v>144264</v>
       </c>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="55">
+      <c r="AC35" s="53">
         <v>207</v>
       </c>
       <c r="AD35" s="20"/>
       <c r="AE35" s="20"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="55"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="55"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="55"/>
+      <c r="M36" s="53"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="55"/>
+      <c r="O36" s="53"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="55"/>
+      <c r="Q36" s="53"/>
       <c r="R36" s="20"/>
-      <c r="S36" s="55"/>
+      <c r="S36" s="53"/>
       <c r="T36" s="20"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="53"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="55"/>
+      <c r="W36" s="53"/>
       <c r="X36" s="20"/>
-      <c r="Y36" s="55"/>
+      <c r="Y36" s="53"/>
       <c r="Z36" s="20"/>
-      <c r="AA36" s="55"/>
+      <c r="AA36" s="53"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="55"/>
+      <c r="AC36" s="53"/>
       <c r="AD36" s="20"/>
       <c r="AE36" s="20"/>
     </row>
     <row r="37" spans="1:31" ht="34">
-      <c r="A37" s="55"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="20">
         <v>4</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="55"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="55"/>
+      <c r="M37" s="53"/>
       <c r="N37" s="20"/>
-      <c r="O37" s="55"/>
+      <c r="O37" s="53"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="55"/>
+      <c r="Q37" s="53"/>
       <c r="R37" s="20"/>
-      <c r="S37" s="55"/>
+      <c r="S37" s="53"/>
       <c r="T37" s="20"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="53"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="55"/>
+      <c r="W37" s="53"/>
       <c r="X37" s="20"/>
-      <c r="Y37" s="55"/>
+      <c r="Y37" s="53"/>
       <c r="Z37" s="20"/>
-      <c r="AA37" s="55"/>
+      <c r="AA37" s="53"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="55"/>
+      <c r="AC37" s="53"/>
       <c r="AD37" s="20"/>
       <c r="AE37" s="20"/>
     </row>
     <row r="38" spans="1:31" ht="34">
-      <c r="A38" s="55"/>
-      <c r="B38" s="87"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="55"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="53"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="55"/>
+      <c r="M38" s="53"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="55"/>
+      <c r="O38" s="53"/>
       <c r="P38" s="20"/>
-      <c r="Q38" s="55"/>
+      <c r="Q38" s="53"/>
       <c r="R38" s="20"/>
-      <c r="S38" s="55"/>
+      <c r="S38" s="53"/>
       <c r="T38" s="20"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="53"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="55"/>
+      <c r="W38" s="53"/>
       <c r="X38" s="20"/>
-      <c r="Y38" s="55"/>
+      <c r="Y38" s="53"/>
       <c r="Z38" s="20"/>
-      <c r="AA38" s="55"/>
+      <c r="AA38" s="53"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="55"/>
+      <c r="AC38" s="53"/>
       <c r="AD38" s="20"/>
       <c r="AE38" s="20"/>
     </row>
     <row r="39" spans="1:31" ht="17">
-      <c r="A39" s="55"/>
-      <c r="B39" s="87"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="20">
         <v>1</v>
       </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="55"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="53"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="55"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="55"/>
+      <c r="O39" s="53"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="55"/>
+      <c r="Q39" s="53"/>
       <c r="R39" s="20"/>
-      <c r="S39" s="55"/>
+      <c r="S39" s="53"/>
       <c r="T39" s="20"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="53"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="55"/>
+      <c r="W39" s="53"/>
       <c r="X39" s="20"/>
-      <c r="Y39" s="55"/>
+      <c r="Y39" s="53"/>
       <c r="Z39" s="20"/>
-      <c r="AA39" s="55"/>
+      <c r="AA39" s="53"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="55"/>
+      <c r="AC39" s="53"/>
       <c r="AD39" s="20"/>
       <c r="AE39" s="20"/>
     </row>
     <row r="40" spans="1:31" ht="34">
-      <c r="A40" s="55"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="20">
         <v>5</v>
       </c>
-      <c r="E40" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" s="55">
+      <c r="E40" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="53">
         <v>991</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="53">
         <v>870</v>
       </c>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="115">
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="113">
         <v>0.44332276999999998</v>
       </c>
-      <c r="M40" s="55"/>
-      <c r="N40" s="115">
+      <c r="M40" s="53"/>
+      <c r="N40" s="113">
         <v>0.35955237000000001</v>
       </c>
-      <c r="O40" s="55"/>
-      <c r="P40" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="112">
-        <v>0</v>
-      </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="112">
-        <v>0</v>
-      </c>
-      <c r="U40" s="55"/>
-      <c r="V40" s="112">
-        <v>0</v>
-      </c>
-      <c r="W40" s="55"/>
-      <c r="X40" s="112">
+      <c r="O40" s="53"/>
+      <c r="P40" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="110">
+        <v>0</v>
+      </c>
+      <c r="S40" s="53"/>
+      <c r="T40" s="110">
+        <v>0</v>
+      </c>
+      <c r="U40" s="53"/>
+      <c r="V40" s="110">
+        <v>0</v>
+      </c>
+      <c r="W40" s="53"/>
+      <c r="X40" s="110">
         <v>14</v>
       </c>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="112">
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="110">
         <v>1462932</v>
       </c>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="112">
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="110">
         <v>146293</v>
       </c>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="112">
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="110">
         <v>164</v>
       </c>
       <c r="AE40" s="20"/>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="55"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="113"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="113"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="113"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="113"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="111"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="111"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="111"/>
       <c r="AE41" s="20"/>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="55"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="113"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="111"/>
       <c r="AE42" s="20"/>
     </row>
     <row r="43" spans="1:31" ht="17">
-      <c r="A43" s="55"/>
-      <c r="B43" s="87"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="20">
         <v>20</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="114"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="114"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="112"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="112"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="112"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="112"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="112"/>
       <c r="AE43" s="20"/>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="86" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="65">
+      <c r="E44" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="63">
         <v>493</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="63">
         <v>324</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="63">
         <v>10.1</v>
       </c>
-      <c r="I44" s="65">
+      <c r="I44" s="63">
         <v>10</v>
       </c>
-      <c r="J44" s="63">
-        <f t="shared" si="8"/>
+      <c r="J44" s="61">
+        <f t="shared" si="0"/>
         <v>0.99009900990099009</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="62">
         <v>8.0926449999999997E-2</v>
       </c>
-      <c r="L44" s="121">
+      <c r="L44" s="119">
         <v>8.0627379999999998E-2</v>
       </c>
-      <c r="M44" s="64">
+      <c r="M44" s="62">
         <v>5.3521140000000002E-2</v>
       </c>
-      <c r="N44" s="121">
+      <c r="N44" s="119">
         <v>5.4160760000000002E-2</v>
       </c>
-      <c r="O44" s="65">
+      <c r="O44" s="63">
         <v>4</v>
       </c>
-      <c r="P44" s="118">
+      <c r="P44" s="116">
         <v>4</v>
       </c>
-      <c r="Q44" s="65">
+      <c r="Q44" s="63">
         <v>576000</v>
       </c>
-      <c r="R44" s="118">
+      <c r="R44" s="116">
         <v>1152000</v>
       </c>
-      <c r="S44" s="65">
+      <c r="S44" s="63">
         <v>57600</v>
       </c>
-      <c r="T44" s="118">
+      <c r="T44" s="116">
         <v>115200</v>
       </c>
-      <c r="U44" s="65">
+      <c r="U44" s="63">
         <v>116</v>
       </c>
-      <c r="V44" s="118">
+      <c r="V44" s="116">
         <v>258</v>
       </c>
-      <c r="W44" s="65">
-        <v>0</v>
-      </c>
-      <c r="X44" s="118">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="118">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="65">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="65">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="118">
+      <c r="W44" s="63">
+        <v>0</v>
+      </c>
+      <c r="X44" s="116">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="116">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="116">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="116">
         <v>0</v>
       </c>
       <c r="AE44" s="24"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="65"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="119"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="119"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="119"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="119"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="119"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="119"/>
-      <c r="AC45" s="65"/>
-      <c r="AD45" s="119"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="117"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="117"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="117"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="117"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="117"/>
       <c r="AE45" s="24"/>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="65"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="119"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="119"/>
-      <c r="AC46" s="65"/>
-      <c r="AD46" s="119"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="63"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="117"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="63"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="63"/>
+      <c r="AD46" s="117"/>
       <c r="AE46" s="24"/>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="65"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="88"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="120"/>
-      <c r="AC47" s="65"/>
-      <c r="AD47" s="120"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="63"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="63"/>
+      <c r="AB47" s="118"/>
+      <c r="AC47" s="63"/>
+      <c r="AD47" s="118"/>
       <c r="AE47" s="24"/>
     </row>
     <row r="48" spans="1:31" ht="34">
-      <c r="A48" s="65"/>
-      <c r="B48" s="88"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="65">
+      <c r="E48" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="63">
         <v>430</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="63">
         <v>333</v>
       </c>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="121">
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="119">
         <v>8.1423270000000006E-2</v>
       </c>
-      <c r="M48" s="65"/>
-      <c r="N48" s="121">
+      <c r="M48" s="63"/>
+      <c r="N48" s="119">
         <v>5.706195E-2</v>
       </c>
-      <c r="O48" s="65"/>
-      <c r="P48" s="118">
+      <c r="O48" s="63"/>
+      <c r="P48" s="116">
         <v>4</v>
       </c>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="118">
+      <c r="Q48" s="63"/>
+      <c r="R48" s="116">
         <v>1152000</v>
       </c>
-      <c r="S48" s="65"/>
-      <c r="T48" s="118">
+      <c r="S48" s="63"/>
+      <c r="T48" s="116">
         <v>115200</v>
       </c>
-      <c r="U48" s="65"/>
-      <c r="V48" s="118">
+      <c r="U48" s="63"/>
+      <c r="V48" s="116">
         <v>257</v>
       </c>
-      <c r="W48" s="65"/>
-      <c r="X48" s="118">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="118">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="118">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="118">
+      <c r="W48" s="63"/>
+      <c r="X48" s="116">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="116">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="116">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="116">
         <v>0</v>
       </c>
       <c r="AE48" s="24"/>
     </row>
     <row r="49" spans="1:31" ht="34">
-      <c r="A49" s="65"/>
-      <c r="B49" s="88"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="119"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="119"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="119"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="119"/>
-      <c r="AC49" s="65"/>
-      <c r="AD49" s="119"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="117"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="117"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="117"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="117"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="117"/>
+      <c r="AC49" s="63"/>
+      <c r="AD49" s="117"/>
       <c r="AE49" s="24"/>
     </row>
     <row r="50" spans="1:31" ht="17">
-      <c r="A50" s="65"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="18">
         <v>100</v>
       </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="65"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="65"/>
-      <c r="X50" s="120"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="120"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="120"/>
-      <c r="AC50" s="65"/>
-      <c r="AD50" s="120"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="118"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="118"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="118"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="118"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="118"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="118"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="118"/>
       <c r="AE50" s="24"/>
     </row>
     <row r="51" spans="1:31" ht="17">
-      <c r="A51" s="65"/>
-      <c r="B51" s="88"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="18">
         <v>20</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="63">
         <v>846</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="63">
         <v>360</v>
       </c>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="65"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="63"/>
       <c r="L51" s="24"/>
-      <c r="M51" s="65"/>
+      <c r="M51" s="63"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="65"/>
+      <c r="O51" s="63"/>
       <c r="P51" s="24"/>
-      <c r="Q51" s="65"/>
+      <c r="Q51" s="63"/>
       <c r="R51" s="24"/>
-      <c r="S51" s="65"/>
+      <c r="S51" s="63"/>
       <c r="T51" s="24"/>
-      <c r="U51" s="65"/>
+      <c r="U51" s="63"/>
       <c r="V51" s="24"/>
-      <c r="W51" s="65"/>
+      <c r="W51" s="63"/>
       <c r="X51" s="24"/>
-      <c r="Y51" s="65"/>
+      <c r="Y51" s="63"/>
       <c r="Z51" s="24"/>
-      <c r="AA51" s="65"/>
+      <c r="AA51" s="63"/>
       <c r="AB51" s="24"/>
-      <c r="AC51" s="65"/>
+      <c r="AC51" s="63"/>
       <c r="AD51" s="24"/>
       <c r="AE51" s="24"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="65"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="88"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="65"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="24"/>
-      <c r="M52" s="65"/>
+      <c r="M52" s="63"/>
       <c r="N52" s="24"/>
-      <c r="O52" s="65"/>
+      <c r="O52" s="63"/>
       <c r="P52" s="24"/>
-      <c r="Q52" s="65"/>
+      <c r="Q52" s="63"/>
       <c r="R52" s="24"/>
-      <c r="S52" s="65"/>
+      <c r="S52" s="63"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="65"/>
+      <c r="U52" s="63"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="65"/>
+      <c r="W52" s="63"/>
       <c r="X52" s="24"/>
-      <c r="Y52" s="65"/>
+      <c r="Y52" s="63"/>
       <c r="Z52" s="24"/>
-      <c r="AA52" s="65"/>
+      <c r="AA52" s="63"/>
       <c r="AB52" s="24"/>
-      <c r="AC52" s="65"/>
+      <c r="AC52" s="63"/>
       <c r="AD52" s="24"/>
       <c r="AE52" s="24"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="65"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="65"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="63"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="65"/>
+      <c r="M53" s="63"/>
       <c r="N53" s="24"/>
-      <c r="O53" s="65"/>
+      <c r="O53" s="63"/>
       <c r="P53" s="24"/>
-      <c r="Q53" s="65"/>
+      <c r="Q53" s="63"/>
       <c r="R53" s="24"/>
-      <c r="S53" s="65"/>
+      <c r="S53" s="63"/>
       <c r="T53" s="24"/>
-      <c r="U53" s="65"/>
+      <c r="U53" s="63"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="65"/>
+      <c r="W53" s="63"/>
       <c r="X53" s="24"/>
-      <c r="Y53" s="65"/>
+      <c r="Y53" s="63"/>
       <c r="Z53" s="24"/>
-      <c r="AA53" s="65"/>
+      <c r="AA53" s="63"/>
       <c r="AB53" s="24"/>
-      <c r="AC53" s="65"/>
+      <c r="AC53" s="63"/>
       <c r="AD53" s="24"/>
       <c r="AE53" s="24"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="65"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="65"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="63"/>
       <c r="L54" s="24"/>
-      <c r="M54" s="65"/>
+      <c r="M54" s="63"/>
       <c r="N54" s="24"/>
-      <c r="O54" s="65"/>
+      <c r="O54" s="63"/>
       <c r="P54" s="24"/>
-      <c r="Q54" s="65"/>
+      <c r="Q54" s="63"/>
       <c r="R54" s="24"/>
-      <c r="S54" s="65"/>
+      <c r="S54" s="63"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="65"/>
+      <c r="U54" s="63"/>
       <c r="V54" s="24"/>
-      <c r="W54" s="65"/>
+      <c r="W54" s="63"/>
       <c r="X54" s="24"/>
-      <c r="Y54" s="65"/>
+      <c r="Y54" s="63"/>
       <c r="Z54" s="24"/>
-      <c r="AA54" s="65"/>
+      <c r="AA54" s="63"/>
       <c r="AB54" s="24"/>
-      <c r="AC54" s="65"/>
+      <c r="AC54" s="63"/>
       <c r="AD54" s="24"/>
       <c r="AE54" s="24"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="89" t="s">
+      <c r="E55" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="49">
         <v>845</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="49">
         <v>286</v>
       </c>
-      <c r="H55" s="51">
+      <c r="H55" s="49">
         <v>10.08</v>
       </c>
-      <c r="I55" s="51">
+      <c r="I55" s="49">
         <v>10</v>
       </c>
-      <c r="J55" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="K55" s="53">
+      <c r="J55" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="K55" s="51">
         <v>3.5599949999999998E-2</v>
       </c>
       <c r="L55" s="19"/>
-      <c r="M55" s="53">
+      <c r="M55" s="51">
         <v>9.5967699999999993E-3</v>
       </c>
       <c r="N55" s="19"/>
-      <c r="O55" s="51">
+      <c r="O55" s="49">
         <v>24</v>
       </c>
       <c r="P55" s="19"/>
-      <c r="Q55" s="51">
+      <c r="Q55" s="49">
         <v>11396</v>
       </c>
       <c r="R55" s="19"/>
-      <c r="S55" s="51">
+      <c r="S55" s="49">
         <v>1139</v>
       </c>
       <c r="T55" s="19"/>
-      <c r="U55" s="51">
+      <c r="U55" s="49">
         <v>3</v>
       </c>
       <c r="V55" s="19"/>
-      <c r="W55" s="51">
+      <c r="W55" s="49">
         <v>1</v>
       </c>
       <c r="X55" s="19"/>
-      <c r="Y55" s="51">
+      <c r="Y55" s="49">
         <v>1024</v>
       </c>
       <c r="Z55" s="19"/>
-      <c r="AA55" s="51">
+      <c r="AA55" s="49">
         <v>102</v>
       </c>
       <c r="AB55" s="19"/>
-      <c r="AC55" s="51">
+      <c r="AC55" s="49">
         <v>0</v>
       </c>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
     </row>
     <row r="56" spans="1:31">
-      <c r="A56" s="51"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="89"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="51"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="49"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="51"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="19"/>
-      <c r="O56" s="51"/>
+      <c r="O56" s="49"/>
       <c r="P56" s="19"/>
-      <c r="Q56" s="51"/>
+      <c r="Q56" s="49"/>
       <c r="R56" s="19"/>
-      <c r="S56" s="51"/>
+      <c r="S56" s="49"/>
       <c r="T56" s="19"/>
-      <c r="U56" s="51"/>
+      <c r="U56" s="49"/>
       <c r="V56" s="19"/>
-      <c r="W56" s="51"/>
+      <c r="W56" s="49"/>
       <c r="X56" s="19"/>
-      <c r="Y56" s="51"/>
+      <c r="Y56" s="49"/>
       <c r="Z56" s="19"/>
-      <c r="AA56" s="51"/>
+      <c r="AA56" s="49"/>
       <c r="AB56" s="19"/>
-      <c r="AC56" s="51"/>
+      <c r="AC56" s="49"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
     </row>
     <row r="57" spans="1:31">
-      <c r="A57" s="51"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="89"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="51"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="49"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="51"/>
+      <c r="M57" s="49"/>
       <c r="N57" s="19"/>
-      <c r="O57" s="51"/>
+      <c r="O57" s="49"/>
       <c r="P57" s="19"/>
-      <c r="Q57" s="51"/>
+      <c r="Q57" s="49"/>
       <c r="R57" s="19"/>
-      <c r="S57" s="51"/>
+      <c r="S57" s="49"/>
       <c r="T57" s="19"/>
-      <c r="U57" s="51"/>
+      <c r="U57" s="49"/>
       <c r="V57" s="19"/>
-      <c r="W57" s="51"/>
+      <c r="W57" s="49"/>
       <c r="X57" s="19"/>
-      <c r="Y57" s="51"/>
+      <c r="Y57" s="49"/>
       <c r="Z57" s="19"/>
-      <c r="AA57" s="51"/>
+      <c r="AA57" s="49"/>
       <c r="AB57" s="19"/>
-      <c r="AC57" s="51"/>
+      <c r="AC57" s="49"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
     </row>
     <row r="58" spans="1:31">
-      <c r="A58" s="51"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E58" s="89"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="51"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="49"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="51"/>
+      <c r="M58" s="49"/>
       <c r="N58" s="19"/>
-      <c r="O58" s="51"/>
+      <c r="O58" s="49"/>
       <c r="P58" s="19"/>
-      <c r="Q58" s="51"/>
+      <c r="Q58" s="49"/>
       <c r="R58" s="19"/>
-      <c r="S58" s="51"/>
+      <c r="S58" s="49"/>
       <c r="T58" s="19"/>
-      <c r="U58" s="51"/>
+      <c r="U58" s="49"/>
       <c r="V58" s="19"/>
-      <c r="W58" s="51"/>
+      <c r="W58" s="49"/>
       <c r="X58" s="19"/>
-      <c r="Y58" s="51"/>
+      <c r="Y58" s="49"/>
       <c r="Z58" s="19"/>
-      <c r="AA58" s="51"/>
+      <c r="AA58" s="49"/>
       <c r="AB58" s="19"/>
-      <c r="AC58" s="51"/>
+      <c r="AC58" s="49"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
     </row>
@@ -4343,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F59" s="2">
         <v>2484</v>
@@ -4357,15 +4395,15 @@
       <c r="I59" s="2">
         <v>10.035972243</v>
       </c>
-      <c r="J59" s="42">
-        <f t="shared" si="8"/>
+      <c r="J59" s="40">
+        <f t="shared" si="0"/>
         <v>0.99068069306582618</v>
       </c>
-      <c r="K59" s="43">
+      <c r="K59" s="41">
         <v>0.92128449999999995</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="M59" s="43">
+      <c r="M59" s="41">
         <v>0.86430624</v>
       </c>
       <c r="N59" s="2"/>
@@ -4400,14 +4438,14 @@
       <c r="AC59" s="2">
         <v>301</v>
       </c>
-      <c r="AD59" s="44"/>
-      <c r="AE59" s="44"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
     </row>
     <row r="60" spans="1:31" customFormat="1" ht="34">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="95" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -4416,397 +4454,397 @@
       <c r="D60" s="16">
         <v>6</v>
       </c>
-      <c r="E60" s="97" t="s">
+      <c r="E60" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="92">
+      <c r="F60" s="90">
         <v>1931</v>
       </c>
-      <c r="G60" s="92">
+      <c r="G60" s="90">
         <v>463</v>
       </c>
-      <c r="H60" s="92">
+      <c r="H60" s="90">
         <v>10.360886259999999</v>
       </c>
-      <c r="I60" s="92">
+      <c r="I60" s="90">
         <v>10.271609893999999</v>
       </c>
-      <c r="J60" s="103">
-        <f t="shared" si="8"/>
+      <c r="J60" s="101">
+        <f t="shared" si="0"/>
         <v>0.99138332727918588</v>
       </c>
-      <c r="K60" s="104">
+      <c r="K60" s="102">
         <v>0.89582335000000002</v>
       </c>
-      <c r="L60" s="45"/>
-      <c r="M60" s="104">
+      <c r="L60" s="43"/>
+      <c r="M60" s="102">
         <v>0.82829238000000005</v>
       </c>
-      <c r="N60" s="45"/>
-      <c r="O60" s="92">
+      <c r="N60" s="43"/>
+      <c r="O60" s="90">
         <v>12</v>
       </c>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="92">
+      <c r="P60" s="43"/>
+      <c r="Q60" s="90">
         <v>17302080</v>
       </c>
-      <c r="R60" s="45"/>
-      <c r="S60" s="92">
+      <c r="R60" s="43"/>
+      <c r="S60" s="90">
         <v>1730208</v>
       </c>
-      <c r="T60" s="45"/>
-      <c r="U60" s="92">
+      <c r="T60" s="43"/>
+      <c r="U60" s="90">
         <v>7303</v>
       </c>
-      <c r="V60" s="45"/>
-      <c r="W60" s="92">
+      <c r="V60" s="43"/>
+      <c r="W60" s="90">
         <v>10</v>
       </c>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="92">
+      <c r="X60" s="43"/>
+      <c r="Y60" s="90">
         <v>2270720</v>
       </c>
-      <c r="Z60" s="45"/>
-      <c r="AA60" s="92">
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="90">
         <v>227072</v>
       </c>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="92">
+      <c r="AB60" s="43"/>
+      <c r="AC60" s="90">
         <v>958</v>
       </c>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
     </row>
     <row r="61" spans="1:31" customFormat="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97" t="s">
+      <c r="A61" s="90"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95" t="s">
         <v>105</v>
       </c>
       <c r="D61" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="97"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="92"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="92"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="92"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="92"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="92"/>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="92"/>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="92"/>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="92"/>
-      <c r="AD61" s="45"/>
-      <c r="AE61" s="45"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="90"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="90"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="90"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="90"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="90"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
     </row>
     <row r="62" spans="1:31" customFormat="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="E62" s="97"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="92"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="92"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="92"/>
-      <c r="V62" s="45"/>
-      <c r="W62" s="92"/>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="92"/>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="45"/>
-      <c r="AC62" s="92"/>
-      <c r="AD62" s="45"/>
-      <c r="AE62" s="45"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="43"/>
+      <c r="AC62" s="90"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
     </row>
     <row r="63" spans="1:31" customFormat="1">
-      <c r="A63" s="92"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97" t="s">
+      <c r="A63" s="90"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95" t="s">
         <v>106</v>
       </c>
       <c r="D63" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="E63" s="97"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="92"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="92"/>
-      <c r="V63" s="45"/>
-      <c r="W63" s="92"/>
-      <c r="X63" s="45"/>
-      <c r="Y63" s="92"/>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="92"/>
-      <c r="AB63" s="45"/>
-      <c r="AC63" s="92"/>
-      <c r="AD63" s="45"/>
-      <c r="AE63" s="45"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="43"/>
+      <c r="AC63" s="90"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
     </row>
     <row r="64" spans="1:31" customFormat="1">
-      <c r="A64" s="92"/>
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
       <c r="D64" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="E64" s="97"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="92"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="92"/>
-      <c r="V64" s="45"/>
-      <c r="W64" s="92"/>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="92"/>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="92"/>
-      <c r="AB64" s="45"/>
-      <c r="AC64" s="92"/>
-      <c r="AD64" s="45"/>
-      <c r="AE64" s="45"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
     </row>
     <row r="65" spans="1:31" customFormat="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="94" t="s">
+      <c r="B65" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E65" s="94" t="s">
+      <c r="E65" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="98">
+      <c r="F65" s="96">
         <v>12076</v>
       </c>
-      <c r="G65" s="98">
+      <c r="G65" s="96">
         <v>3214</v>
       </c>
-      <c r="H65" s="98">
+      <c r="H65" s="96">
         <v>10.073288896999999</v>
       </c>
-      <c r="I65" s="98">
+      <c r="I65" s="96">
         <v>9.9436182080000002</v>
       </c>
-      <c r="J65" s="106">
-        <f t="shared" si="8"/>
+      <c r="J65" s="104">
+        <f t="shared" si="0"/>
         <v>0.98712727388980004</v>
       </c>
-      <c r="K65" s="105">
+      <c r="K65" s="103">
         <v>0.83972849999999999</v>
       </c>
-      <c r="L65" s="46"/>
-      <c r="M65" s="105">
+      <c r="L65" s="44"/>
+      <c r="M65" s="103">
         <v>0.73977572000000003</v>
       </c>
-      <c r="N65" s="46"/>
-      <c r="O65" s="98">
+      <c r="N65" s="44"/>
+      <c r="O65" s="96">
         <v>3</v>
       </c>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="98">
+      <c r="P65" s="44"/>
+      <c r="Q65" s="96">
         <v>516416</v>
       </c>
-      <c r="R65" s="46"/>
-      <c r="S65" s="98">
+      <c r="R65" s="44"/>
+      <c r="S65" s="96">
         <v>51641</v>
       </c>
-      <c r="T65" s="46"/>
-      <c r="U65" s="98">
+      <c r="T65" s="44"/>
+      <c r="U65" s="96">
         <v>46</v>
       </c>
-      <c r="V65" s="46"/>
-      <c r="W65" s="98">
+      <c r="V65" s="44"/>
+      <c r="W65" s="96">
         <v>1</v>
       </c>
-      <c r="X65" s="46"/>
-      <c r="Y65" s="98">
+      <c r="X65" s="44"/>
+      <c r="Y65" s="96">
         <v>1920000</v>
       </c>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="98">
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="96">
         <v>192000</v>
       </c>
-      <c r="AB65" s="46"/>
-      <c r="AC65" s="98">
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="96">
         <v>172</v>
       </c>
-      <c r="AD65" s="46"/>
-      <c r="AE65" s="46"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
     </row>
     <row r="66" spans="1:31" customFormat="1">
-      <c r="A66" s="98"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E66" s="94"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="105"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="98"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="98"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="98"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="98"/>
-      <c r="X66" s="46"/>
-      <c r="Y66" s="98"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="98"/>
-      <c r="AB66" s="46"/>
-      <c r="AC66" s="98"/>
-      <c r="AD66" s="46"/>
-      <c r="AE66" s="46"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="104"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="96"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="96"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="96"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="96"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
     </row>
     <row r="67" spans="1:31" customFormat="1">
-      <c r="A67" s="98"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94" t="s">
+      <c r="A67" s="96"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E67" s="94"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="105"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="98"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="98"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="98"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="98"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="98"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="98"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="98"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="98"/>
-      <c r="AD67" s="46"/>
-      <c r="AE67" s="46"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="103"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="103"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="96"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="96"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="96"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="96"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
     </row>
     <row r="68" spans="1:31" customFormat="1">
-      <c r="A68" s="98"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="98"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="105"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="98"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="98"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="98"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="98"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="98"/>
-      <c r="X68" s="46"/>
-      <c r="Y68" s="98"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="98"/>
-      <c r="AB68" s="46"/>
-      <c r="AC68" s="98"/>
-      <c r="AD68" s="46"/>
-      <c r="AE68" s="46"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="104"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="103"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="96"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="96"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="96"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="96"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
     </row>
     <row r="69" spans="1:31" customFormat="1" ht="17">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="93" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -4815,253 +4853,253 @@
       <c r="D69" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="95" t="s">
+      <c r="E69" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="96">
+      <c r="F69" s="94">
         <v>3849</v>
       </c>
-      <c r="G69" s="96">
+      <c r="G69" s="94">
         <v>892</v>
       </c>
-      <c r="H69" s="96">
+      <c r="H69" s="94">
         <v>10.465031246000001</v>
       </c>
-      <c r="I69" s="96">
+      <c r="I69" s="94">
         <v>10.340275102</v>
       </c>
-      <c r="J69" s="107">
-        <f t="shared" si="8"/>
+      <c r="J69" s="105">
+        <f t="shared" si="0"/>
         <v>0.98807876048648347</v>
       </c>
-      <c r="K69" s="78">
+      <c r="K69" s="76">
         <v>0.86186233000000001</v>
       </c>
-      <c r="L69" s="47"/>
-      <c r="M69" s="78">
+      <c r="L69" s="45"/>
+      <c r="M69" s="76">
         <v>0.77461104999999997</v>
       </c>
-      <c r="N69" s="47"/>
-      <c r="O69" s="96">
+      <c r="N69" s="45"/>
+      <c r="O69" s="94">
         <v>2</v>
       </c>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="96">
+      <c r="P69" s="45"/>
+      <c r="Q69" s="94">
         <v>5015952</v>
       </c>
-      <c r="R69" s="47"/>
-      <c r="S69" s="96">
+      <c r="R69" s="45"/>
+      <c r="S69" s="94">
         <v>501595</v>
       </c>
-      <c r="T69" s="47"/>
-      <c r="U69" s="96">
+      <c r="T69" s="45"/>
+      <c r="U69" s="94">
         <v>1001</v>
       </c>
-      <c r="V69" s="47"/>
-      <c r="W69" s="96">
+      <c r="V69" s="45"/>
+      <c r="W69" s="94">
         <v>3</v>
       </c>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="96">
+      <c r="X69" s="45"/>
+      <c r="Y69" s="94">
         <v>4102144</v>
       </c>
-      <c r="Z69" s="47"/>
-      <c r="AA69" s="96">
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="94">
         <v>410214</v>
       </c>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="96">
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="94">
         <v>819</v>
       </c>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="47"/>
+      <c r="AD69" s="45"/>
+      <c r="AE69" s="45"/>
     </row>
     <row r="70" spans="1:31" customFormat="1" ht="17">
-      <c r="A70" s="96"/>
-      <c r="B70" s="95"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D70" s="11">
         <v>1.2</v>
       </c>
-      <c r="E70" s="95"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="96"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="96"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="96"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="96"/>
-      <c r="X70" s="47"/>
-      <c r="Y70" s="96"/>
-      <c r="Z70" s="47"/>
-      <c r="AA70" s="96"/>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="96"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="47"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="94"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="94"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="94"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="94"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="94"/>
+      <c r="AD70" s="45"/>
+      <c r="AE70" s="45"/>
     </row>
     <row r="71" spans="1:31" customFormat="1">
-      <c r="A71" s="96"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95" t="s">
+      <c r="A71" s="94"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E71" s="95"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="96"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="96"/>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="96"/>
-      <c r="Z71" s="47"/>
-      <c r="AA71" s="96"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="96"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="47"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="76"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="94"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="94"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
     </row>
     <row r="72" spans="1:31" customFormat="1">
-      <c r="A72" s="96"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
       <c r="D72" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="E72" s="95"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="107"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="96"/>
-      <c r="P72" s="47"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="96"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="96"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="96"/>
-      <c r="Z72" s="47"/>
-      <c r="AA72" s="96"/>
-      <c r="AB72" s="47"/>
-      <c r="AC72" s="96"/>
-      <c r="AD72" s="47"/>
-      <c r="AE72" s="47"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="45"/>
+      <c r="AC72" s="94"/>
+      <c r="AD72" s="45"/>
+      <c r="AE72" s="45"/>
     </row>
     <row r="73" spans="1:31" customFormat="1">
-      <c r="A73" s="96"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95" t="s">
+      <c r="A73" s="94"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="E73" s="95"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="96"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="96"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="96"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="96"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="96"/>
-      <c r="AD73" s="47"/>
-      <c r="AE73" s="47"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="94"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="94"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="94"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="94"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="94"/>
+      <c r="AD73" s="45"/>
+      <c r="AE73" s="45"/>
     </row>
     <row r="74" spans="1:31" customFormat="1">
-      <c r="A74" s="96"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E74" s="95"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="47"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="47"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="96"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="96"/>
-      <c r="X74" s="47"/>
-      <c r="Y74" s="96"/>
-      <c r="Z74" s="47"/>
-      <c r="AA74" s="96"/>
-      <c r="AB74" s="47"/>
-      <c r="AC74" s="96"/>
-      <c r="AD74" s="47"/>
-      <c r="AE74" s="47"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="94"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="94"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="94"/>
+      <c r="AD74" s="45"/>
+      <c r="AE74" s="45"/>
     </row>
     <row r="75" spans="1:31" customFormat="1" ht="34">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="100" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -5070,265 +5108,265 @@
       <c r="D75" s="13">
         <v>1</v>
       </c>
-      <c r="E75" s="102" t="s">
+      <c r="E75" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="F75" s="101">
+      <c r="F75" s="99">
         <v>16039</v>
       </c>
-      <c r="G75" s="101">
+      <c r="G75" s="99">
         <v>5339</v>
       </c>
-      <c r="H75" s="101">
+      <c r="H75" s="99">
         <v>10.062646546</v>
       </c>
-      <c r="I75" s="101">
+      <c r="I75" s="99">
         <v>9.9344848549999991</v>
       </c>
-      <c r="J75" s="109">
-        <f t="shared" ref="J75:J91" si="9">I75/H75</f>
+      <c r="J75" s="107">
+        <f t="shared" ref="J75:J91" si="1">I75/H75</f>
         <v>0.9872636199220427</v>
       </c>
-      <c r="K75" s="108">
+      <c r="K75" s="106">
         <v>0.93335016999999998</v>
       </c>
-      <c r="L75" s="48"/>
-      <c r="M75" s="108">
+      <c r="L75" s="46"/>
+      <c r="M75" s="106">
         <v>0.85503446999999999</v>
       </c>
-      <c r="N75" s="48"/>
-      <c r="O75" s="101">
+      <c r="N75" s="46"/>
+      <c r="O75" s="99">
         <v>1</v>
       </c>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="101">
+      <c r="P75" s="46"/>
+      <c r="Q75" s="99">
         <v>73728</v>
       </c>
-      <c r="R75" s="48"/>
-      <c r="S75" s="101">
+      <c r="R75" s="46"/>
+      <c r="S75" s="99">
         <v>7372</v>
       </c>
-      <c r="T75" s="48"/>
-      <c r="U75" s="101">
+      <c r="T75" s="46"/>
+      <c r="U75" s="99">
         <v>5</v>
       </c>
-      <c r="V75" s="48"/>
-      <c r="W75" s="101">
-        <v>0</v>
-      </c>
-      <c r="X75" s="48"/>
-      <c r="Y75" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="48"/>
-      <c r="AA75" s="101">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="48"/>
-      <c r="AC75" s="101">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="48"/>
-      <c r="AE75" s="48"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="99">
+        <v>0</v>
+      </c>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="99">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="99">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="99">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
     </row>
     <row r="76" spans="1:31" customFormat="1">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102" t="s">
+      <c r="A76" s="99"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100" t="s">
         <v>117</v>
       </c>
       <c r="D76" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E76" s="102"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="109"/>
-      <c r="K76" s="108"/>
-      <c r="L76" s="48"/>
-      <c r="M76" s="108"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="101"/>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="101"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="101"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="101"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="101"/>
-      <c r="X76" s="48"/>
-      <c r="Y76" s="101"/>
-      <c r="Z76" s="48"/>
-      <c r="AA76" s="101"/>
-      <c r="AB76" s="48"/>
-      <c r="AC76" s="101"/>
-      <c r="AD76" s="48"/>
-      <c r="AE76" s="48"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="107"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="106"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="99"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="99"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="99"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="99"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="99"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="99"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="99"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="99"/>
+      <c r="AD76" s="46"/>
+      <c r="AE76" s="46"/>
     </row>
     <row r="77" spans="1:31" customFormat="1">
-      <c r="A77" s="101"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
       <c r="D77" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E77" s="102" t="s">
+      <c r="E77" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="F77" s="101">
+      <c r="F77" s="99">
         <v>15924</v>
       </c>
-      <c r="G77" s="101">
+      <c r="G77" s="99">
         <v>5337</v>
       </c>
-      <c r="H77" s="101"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="101"/>
-      <c r="P77" s="48"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="48"/>
-      <c r="S77" s="101"/>
-      <c r="T77" s="48"/>
-      <c r="U77" s="101"/>
-      <c r="V77" s="48"/>
-      <c r="W77" s="101"/>
-      <c r="X77" s="48"/>
-      <c r="Y77" s="101"/>
-      <c r="Z77" s="48"/>
-      <c r="AA77" s="101"/>
-      <c r="AB77" s="48"/>
-      <c r="AC77" s="101"/>
-      <c r="AD77" s="48"/>
-      <c r="AE77" s="48"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="106"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="99"/>
+      <c r="X77" s="46"/>
+      <c r="Y77" s="99"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="99"/>
+      <c r="AB77" s="46"/>
+      <c r="AC77" s="99"/>
+      <c r="AD77" s="46"/>
+      <c r="AE77" s="46"/>
     </row>
     <row r="78" spans="1:31" customFormat="1" ht="34">
-      <c r="A78" s="101"/>
-      <c r="B78" s="102"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="100"/>
       <c r="C78" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
       </c>
-      <c r="E78" s="102"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="101"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="108"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="108"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="101"/>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="101"/>
-      <c r="R78" s="48"/>
-      <c r="S78" s="101"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="101"/>
-      <c r="V78" s="48"/>
-      <c r="W78" s="101"/>
-      <c r="X78" s="48"/>
-      <c r="Y78" s="101"/>
-      <c r="Z78" s="48"/>
-      <c r="AA78" s="101"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="101"/>
-      <c r="AD78" s="48"/>
-      <c r="AE78" s="48"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="106"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="99"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="99"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="99"/>
+      <c r="X78" s="46"/>
+      <c r="Y78" s="99"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="99"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="99"/>
+      <c r="AD78" s="46"/>
+      <c r="AE78" s="46"/>
     </row>
     <row r="79" spans="1:31" customFormat="1">
-      <c r="A79" s="101"/>
-      <c r="B79" s="102"/>
-      <c r="C79" s="102" t="s">
+      <c r="A79" s="99"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100" t="s">
         <v>118</v>
       </c>
       <c r="D79" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E79" s="102" t="s">
+      <c r="E79" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="101">
+      <c r="F79" s="99">
         <v>16063</v>
       </c>
-      <c r="G79" s="101">
+      <c r="G79" s="99">
         <v>5346</v>
       </c>
-      <c r="H79" s="101"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="108"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="108"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="48"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="48"/>
-      <c r="U79" s="101"/>
-      <c r="V79" s="48"/>
-      <c r="W79" s="101"/>
-      <c r="X79" s="48"/>
-      <c r="Y79" s="101"/>
-      <c r="Z79" s="48"/>
-      <c r="AA79" s="101"/>
-      <c r="AB79" s="48"/>
-      <c r="AC79" s="101"/>
-      <c r="AD79" s="48"/>
-      <c r="AE79" s="48"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="107"/>
+      <c r="K79" s="106"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="106"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="99"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="99"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="99"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="99"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="99"/>
+      <c r="AD79" s="46"/>
+      <c r="AE79" s="46"/>
     </row>
     <row r="80" spans="1:31" customFormat="1">
-      <c r="A80" s="101"/>
-      <c r="B80" s="102"/>
-      <c r="C80" s="102"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
       <c r="D80" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="E80" s="102"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="48"/>
-      <c r="M80" s="108"/>
-      <c r="N80" s="48"/>
-      <c r="O80" s="101"/>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="101"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="48"/>
-      <c r="U80" s="101"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="101"/>
-      <c r="X80" s="48"/>
-      <c r="Y80" s="101"/>
-      <c r="Z80" s="48"/>
-      <c r="AA80" s="101"/>
-      <c r="AB80" s="48"/>
-      <c r="AC80" s="101"/>
-      <c r="AD80" s="48"/>
-      <c r="AE80" s="48"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="106"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="99"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="99"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="99"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="99"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="99"/>
+      <c r="X80" s="46"/>
+      <c r="Y80" s="99"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="99"/>
+      <c r="AB80" s="46"/>
+      <c r="AC80" s="99"/>
+      <c r="AD80" s="46"/>
+      <c r="AE80" s="46"/>
     </row>
     <row r="81" spans="1:31" customFormat="1" ht="34">
-      <c r="A81" s="100" t="s">
+      <c r="A81" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="99" t="s">
+      <c r="B81" s="97" t="s">
         <v>126</v>
       </c>
       <c r="C81" s="7" t="s">
@@ -5337,403 +5375,403 @@
       <c r="D81" s="8">
         <v>1</v>
       </c>
-      <c r="E81" s="99" t="s">
+      <c r="E81" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="100">
+      <c r="F81" s="98">
         <v>16017</v>
       </c>
-      <c r="G81" s="100">
+      <c r="G81" s="98">
         <v>5363</v>
       </c>
-      <c r="H81" s="100">
+      <c r="H81" s="98">
         <v>10.063681735999999</v>
       </c>
-      <c r="I81" s="100">
+      <c r="I81" s="98">
         <v>9.9378831220000006</v>
       </c>
-      <c r="J81" s="110">
-        <f t="shared" si="9"/>
+      <c r="J81" s="108">
+        <f t="shared" si="1"/>
         <v>0.98749974241037553</v>
       </c>
-      <c r="K81" s="111">
+      <c r="K81" s="109">
         <v>0.93326076000000002</v>
       </c>
-      <c r="L81" s="49"/>
-      <c r="M81" s="111">
+      <c r="L81" s="47"/>
+      <c r="M81" s="109">
         <v>0.85236292000000002</v>
       </c>
-      <c r="N81" s="49"/>
-      <c r="O81" s="100">
+      <c r="N81" s="47"/>
+      <c r="O81" s="98">
         <v>1</v>
       </c>
-      <c r="P81" s="49"/>
-      <c r="Q81" s="100">
+      <c r="P81" s="47"/>
+      <c r="Q81" s="98">
         <v>73728</v>
       </c>
-      <c r="R81" s="49"/>
-      <c r="S81" s="100">
+      <c r="R81" s="47"/>
+      <c r="S81" s="98">
         <v>7372</v>
       </c>
-      <c r="T81" s="49"/>
-      <c r="U81" s="100">
+      <c r="T81" s="47"/>
+      <c r="U81" s="98">
         <v>5</v>
       </c>
-      <c r="V81" s="49"/>
-      <c r="W81" s="100">
-        <v>0</v>
-      </c>
-      <c r="X81" s="49"/>
-      <c r="Y81" s="100">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="49"/>
-      <c r="AA81" s="100">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="49"/>
-      <c r="AC81" s="100">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="49"/>
-      <c r="AE81" s="49"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="98">
+        <v>0</v>
+      </c>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="98">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="98">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
     </row>
     <row r="82" spans="1:31" customFormat="1">
-      <c r="A82" s="100"/>
-      <c r="B82" s="99"/>
-      <c r="C82" s="99" t="s">
+      <c r="A82" s="98"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E82" s="99"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="100"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="111"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="111"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="100"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="100"/>
-      <c r="T82" s="49"/>
-      <c r="U82" s="100"/>
-      <c r="V82" s="49"/>
-      <c r="W82" s="100"/>
-      <c r="X82" s="49"/>
-      <c r="Y82" s="100"/>
-      <c r="Z82" s="49"/>
-      <c r="AA82" s="100"/>
-      <c r="AB82" s="49"/>
-      <c r="AC82" s="100"/>
-      <c r="AD82" s="49"/>
-      <c r="AE82" s="49"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="98"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="98"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="98"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="98"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="98"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="98"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="98"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="98"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
     </row>
     <row r="83" spans="1:31" customFormat="1">
-      <c r="A83" s="100"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E83" s="99"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="110"/>
-      <c r="K83" s="111"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="111"/>
-      <c r="N83" s="49"/>
-      <c r="O83" s="100"/>
-      <c r="P83" s="49"/>
-      <c r="Q83" s="100"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="100"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="100"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="100"/>
-      <c r="X83" s="49"/>
-      <c r="Y83" s="100"/>
-      <c r="Z83" s="49"/>
-      <c r="AA83" s="100"/>
-      <c r="AB83" s="49"/>
-      <c r="AC83" s="100"/>
-      <c r="AD83" s="49"/>
-      <c r="AE83" s="49"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="109"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="109"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="98"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="98"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="98"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="98"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="98"/>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="98"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="98"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="47"/>
     </row>
     <row r="84" spans="1:31" customFormat="1" ht="34">
-      <c r="A84" s="100"/>
-      <c r="B84" s="99"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
       </c>
-      <c r="E84" s="99"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="100"/>
-      <c r="J84" s="110"/>
-      <c r="K84" s="111"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="111"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="100"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="100"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="100"/>
-      <c r="T84" s="49"/>
-      <c r="U84" s="100"/>
-      <c r="V84" s="49"/>
-      <c r="W84" s="100"/>
-      <c r="X84" s="49"/>
-      <c r="Y84" s="100"/>
-      <c r="Z84" s="49"/>
-      <c r="AA84" s="100"/>
-      <c r="AB84" s="49"/>
-      <c r="AC84" s="100"/>
-      <c r="AD84" s="49"/>
-      <c r="AE84" s="49"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="109"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="109"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="98"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="98"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="98"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="98"/>
+      <c r="Z84" s="47"/>
+      <c r="AA84" s="98"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="98"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
     </row>
     <row r="85" spans="1:31" customFormat="1">
-      <c r="A85" s="100"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="99" t="s">
+      <c r="A85" s="98"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="E85" s="99"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="110"/>
-      <c r="K85" s="111"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="111"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="100"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="100"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="100"/>
-      <c r="T85" s="49"/>
-      <c r="U85" s="100"/>
-      <c r="V85" s="49"/>
-      <c r="W85" s="100"/>
-      <c r="X85" s="49"/>
-      <c r="Y85" s="100"/>
-      <c r="Z85" s="49"/>
-      <c r="AA85" s="100"/>
-      <c r="AB85" s="49"/>
-      <c r="AC85" s="100"/>
-      <c r="AD85" s="49"/>
-      <c r="AE85" s="49"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="109"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="109"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="98"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="98"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="98"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="98"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="98"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="98"/>
+      <c r="Z85" s="47"/>
+      <c r="AA85" s="98"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="98"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="47"/>
     </row>
     <row r="86" spans="1:31" customFormat="1">
-      <c r="A86" s="100"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="97"/>
       <c r="D86" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="E86" s="99" t="s">
+      <c r="E86" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="100">
+      <c r="F86" s="98">
         <v>15947</v>
       </c>
-      <c r="G86" s="100">
+      <c r="G86" s="98">
         <v>5358</v>
       </c>
-      <c r="H86" s="100"/>
-      <c r="I86" s="100"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="111"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="111"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="100"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="100"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="100"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="100"/>
-      <c r="V86" s="49"/>
-      <c r="W86" s="100"/>
-      <c r="X86" s="49"/>
-      <c r="Y86" s="100"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="100"/>
-      <c r="AB86" s="49"/>
-      <c r="AC86" s="100"/>
-      <c r="AD86" s="49"/>
-      <c r="AE86" s="49"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="109"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="109"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="98"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="98"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="98"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="98"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="98"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="98"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="98"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="98"/>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
     </row>
     <row r="87" spans="1:31" customFormat="1">
-      <c r="A87" s="100"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99" t="s">
+      <c r="A87" s="98"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97" t="s">
         <v>122</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="99"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="100"/>
-      <c r="J87" s="110"/>
-      <c r="K87" s="111"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="111"/>
-      <c r="N87" s="49"/>
-      <c r="O87" s="100"/>
-      <c r="P87" s="49"/>
-      <c r="Q87" s="100"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="100"/>
-      <c r="T87" s="49"/>
-      <c r="U87" s="100"/>
-      <c r="V87" s="49"/>
-      <c r="W87" s="100"/>
-      <c r="X87" s="49"/>
-      <c r="Y87" s="100"/>
-      <c r="Z87" s="49"/>
-      <c r="AA87" s="100"/>
-      <c r="AB87" s="49"/>
-      <c r="AC87" s="100"/>
-      <c r="AD87" s="49"/>
-      <c r="AE87" s="49"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="109"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="109"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="98"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="98"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="98"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="98"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="98"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="98"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="98"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="98"/>
+      <c r="AD87" s="47"/>
+      <c r="AE87" s="47"/>
     </row>
     <row r="88" spans="1:31" customFormat="1">
-      <c r="A88" s="100"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
+      <c r="A88" s="98"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="99"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="110"/>
-      <c r="K88" s="111"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="111"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="100"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="100"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="100"/>
-      <c r="T88" s="49"/>
-      <c r="U88" s="100"/>
-      <c r="V88" s="49"/>
-      <c r="W88" s="100"/>
-      <c r="X88" s="49"/>
-      <c r="Y88" s="100"/>
-      <c r="Z88" s="49"/>
-      <c r="AA88" s="100"/>
-      <c r="AB88" s="49"/>
-      <c r="AC88" s="100"/>
-      <c r="AD88" s="49"/>
-      <c r="AE88" s="49"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="109"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="109"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="98"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="98"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="98"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="98"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="98"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="98"/>
+      <c r="Z88" s="47"/>
+      <c r="AA88" s="98"/>
+      <c r="AB88" s="47"/>
+      <c r="AC88" s="98"/>
+      <c r="AD88" s="47"/>
+      <c r="AE88" s="47"/>
     </row>
     <row r="89" spans="1:31" customFormat="1">
-      <c r="A89" s="100"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99" t="s">
+      <c r="A89" s="98"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="97" t="s">
         <v>123</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="99"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="110"/>
-      <c r="K89" s="111"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="109"/>
       <c r="L89" s="30"/>
-      <c r="M89" s="111"/>
-      <c r="N89" s="49"/>
-      <c r="O89" s="100"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="100"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="100"/>
-      <c r="T89" s="49"/>
-      <c r="U89" s="100"/>
-      <c r="V89" s="49"/>
-      <c r="W89" s="100"/>
-      <c r="X89" s="49"/>
-      <c r="Y89" s="100"/>
-      <c r="Z89" s="49"/>
-      <c r="AA89" s="100"/>
-      <c r="AB89" s="49"/>
-      <c r="AC89" s="100"/>
-      <c r="AD89" s="49"/>
-      <c r="AE89" s="49"/>
+      <c r="M89" s="109"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="98"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="98"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="98"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="98"/>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="47"/>
+      <c r="AA89" s="98"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="98"/>
+      <c r="AD89" s="47"/>
+      <c r="AE89" s="47"/>
     </row>
     <row r="90" spans="1:31" customFormat="1">
-      <c r="A90" s="100"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E90" s="99"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="110"/>
-      <c r="K90" s="111"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="111"/>
-      <c r="N90" s="49"/>
-      <c r="O90" s="100"/>
-      <c r="P90" s="49"/>
-      <c r="Q90" s="100"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="100"/>
-      <c r="T90" s="49"/>
-      <c r="U90" s="100"/>
-      <c r="V90" s="49"/>
-      <c r="W90" s="100"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="100"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="100"/>
-      <c r="AB90" s="49"/>
-      <c r="AC90" s="100"/>
-      <c r="AD90" s="49"/>
-      <c r="AE90" s="49"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="108"/>
+      <c r="K90" s="109"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="109"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="98"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="98"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="98"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="98"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="98"/>
+      <c r="X90" s="47"/>
+      <c r="Y90" s="98"/>
+      <c r="Z90" s="47"/>
+      <c r="AA90" s="98"/>
+      <c r="AB90" s="47"/>
+      <c r="AC90" s="98"/>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
     </row>
     <row r="91" spans="1:31" customFormat="1" ht="34">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="85" t="s">
+      <c r="B91" s="83" t="s">
         <v>129</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -5742,403 +5780,403 @@
       <c r="D91" s="5">
         <v>1</v>
       </c>
-      <c r="E91" s="85" t="s">
+      <c r="E91" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="68">
+      <c r="F91" s="66">
         <v>15974</v>
       </c>
-      <c r="G91" s="68">
+      <c r="G91" s="66">
         <v>5355</v>
       </c>
-      <c r="H91" s="68">
+      <c r="H91" s="66">
         <v>10.064104260000001</v>
       </c>
-      <c r="I91" s="68">
+      <c r="I91" s="66">
         <v>9.9368718470000008</v>
       </c>
-      <c r="J91" s="80">
-        <f t="shared" si="9"/>
+      <c r="J91" s="78">
+        <f t="shared" si="1"/>
         <v>0.9873578005838346</v>
       </c>
-      <c r="K91" s="73">
+      <c r="K91" s="71">
         <v>0.93401413</v>
       </c>
-      <c r="L91" s="50"/>
-      <c r="M91" s="73">
+      <c r="L91" s="48"/>
+      <c r="M91" s="71">
         <v>0.85527136999999998</v>
       </c>
-      <c r="N91" s="50"/>
-      <c r="O91" s="68">
+      <c r="N91" s="48"/>
+      <c r="O91" s="66">
         <v>1</v>
       </c>
-      <c r="P91" s="50"/>
-      <c r="Q91" s="68">
+      <c r="P91" s="48"/>
+      <c r="Q91" s="66">
         <v>73728</v>
       </c>
-      <c r="R91" s="50"/>
-      <c r="S91" s="68">
+      <c r="R91" s="48"/>
+      <c r="S91" s="66">
         <v>7372</v>
       </c>
-      <c r="T91" s="50"/>
-      <c r="U91" s="68">
+      <c r="T91" s="48"/>
+      <c r="U91" s="66">
         <v>5</v>
       </c>
-      <c r="V91" s="50"/>
-      <c r="W91" s="68">
-        <v>0</v>
-      </c>
-      <c r="X91" s="50"/>
-      <c r="Y91" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="50"/>
-      <c r="AA91" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="50"/>
-      <c r="AC91" s="68">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="50"/>
-      <c r="AE91" s="50"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="66">
+        <v>0</v>
+      </c>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="66">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="66">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="48"/>
+      <c r="AE91" s="48"/>
     </row>
     <row r="92" spans="1:31" customFormat="1">
-      <c r="A92" s="68"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83" t="s">
         <v>130</v>
       </c>
       <c r="D92" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="73"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="73"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="68"/>
-      <c r="P92" s="50"/>
-      <c r="Q92" s="68"/>
-      <c r="R92" s="50"/>
-      <c r="S92" s="68"/>
-      <c r="T92" s="50"/>
-      <c r="U92" s="68"/>
-      <c r="V92" s="50"/>
-      <c r="W92" s="68"/>
-      <c r="X92" s="50"/>
-      <c r="Y92" s="68"/>
-      <c r="Z92" s="50"/>
-      <c r="AA92" s="68"/>
-      <c r="AB92" s="50"/>
-      <c r="AC92" s="68"/>
-      <c r="AD92" s="50"/>
-      <c r="AE92" s="50"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="66"/>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="66"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="66"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="66"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="66"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="66"/>
+      <c r="Z92" s="48"/>
+      <c r="AA92" s="66"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="66"/>
+      <c r="AD92" s="48"/>
+      <c r="AE92" s="48"/>
     </row>
     <row r="93" spans="1:31" customFormat="1">
-      <c r="A93" s="68"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
       <c r="D93" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="73"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="68"/>
-      <c r="P93" s="50"/>
-      <c r="Q93" s="68"/>
-      <c r="R93" s="50"/>
-      <c r="S93" s="68"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="68"/>
-      <c r="V93" s="50"/>
-      <c r="W93" s="68"/>
-      <c r="X93" s="50"/>
-      <c r="Y93" s="68"/>
-      <c r="Z93" s="50"/>
-      <c r="AA93" s="68"/>
-      <c r="AB93" s="50"/>
-      <c r="AC93" s="68"/>
-      <c r="AD93" s="50"/>
-      <c r="AE93" s="50"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="71"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="66"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="66"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="66"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="66"/>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="66"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="66"/>
+      <c r="AD93" s="48"/>
+      <c r="AE93" s="48"/>
     </row>
     <row r="94" spans="1:31" customFormat="1" ht="34">
-      <c r="A94" s="68"/>
-      <c r="B94" s="85"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="83"/>
       <c r="C94" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E94" s="85" t="s">
+      <c r="E94" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="F94" s="68">
+      <c r="F94" s="66">
         <v>16034</v>
       </c>
-      <c r="G94" s="68">
+      <c r="G94" s="66">
         <v>5341</v>
       </c>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
-      <c r="J94" s="80"/>
-      <c r="K94" s="73"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="73"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="68"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="68"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="68"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="68"/>
-      <c r="V94" s="50"/>
-      <c r="W94" s="68"/>
-      <c r="X94" s="50"/>
-      <c r="Y94" s="68"/>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="68"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="68"/>
-      <c r="AD94" s="50"/>
-      <c r="AE94" s="50"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="71"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="66"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="66"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="66"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="66"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="66"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="66"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="66"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="66"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="48"/>
     </row>
     <row r="95" spans="1:31" customFormat="1">
-      <c r="A95" s="68"/>
-      <c r="B95" s="85"/>
-      <c r="C95" s="85" t="s">
+      <c r="A95" s="66"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83" t="s">
         <v>131</v>
       </c>
       <c r="D95" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="68"/>
-      <c r="I95" s="68"/>
-      <c r="J95" s="80"/>
-      <c r="K95" s="73"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="73"/>
-      <c r="N95" s="50"/>
-      <c r="O95" s="68"/>
-      <c r="P95" s="50"/>
-      <c r="Q95" s="68"/>
-      <c r="R95" s="50"/>
-      <c r="S95" s="68"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="68"/>
-      <c r="V95" s="50"/>
-      <c r="W95" s="68"/>
-      <c r="X95" s="50"/>
-      <c r="Y95" s="68"/>
-      <c r="Z95" s="50"/>
-      <c r="AA95" s="68"/>
-      <c r="AB95" s="50"/>
-      <c r="AC95" s="68"/>
-      <c r="AD95" s="50"/>
-      <c r="AE95" s="50"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="66"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="66"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="66"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="66"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="66"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="48"/>
     </row>
     <row r="96" spans="1:31" customFormat="1">
-      <c r="A96" s="68"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
       <c r="D96" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E96" s="85"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="80"/>
-      <c r="K96" s="73"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="73"/>
-      <c r="N96" s="50"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="50"/>
-      <c r="Q96" s="68"/>
-      <c r="R96" s="50"/>
-      <c r="S96" s="68"/>
-      <c r="T96" s="50"/>
-      <c r="U96" s="68"/>
-      <c r="V96" s="50"/>
-      <c r="W96" s="68"/>
-      <c r="X96" s="50"/>
-      <c r="Y96" s="68"/>
-      <c r="Z96" s="50"/>
-      <c r="AA96" s="68"/>
-      <c r="AB96" s="50"/>
-      <c r="AC96" s="68"/>
-      <c r="AD96" s="50"/>
-      <c r="AE96" s="50"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="66"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="66"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="66"/>
+      <c r="T96" s="48"/>
+      <c r="U96" s="66"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="66"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="66"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="66"/>
+      <c r="AB96" s="48"/>
+      <c r="AC96" s="66"/>
+      <c r="AD96" s="48"/>
+      <c r="AE96" s="48"/>
     </row>
     <row r="97" spans="1:31" customFormat="1">
-      <c r="A97" s="68"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85" t="s">
+      <c r="A97" s="66"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83" t="s">
         <v>132</v>
       </c>
       <c r="D97" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E97" s="85" t="s">
+      <c r="E97" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="F97" s="68">
+      <c r="F97" s="66">
         <v>15977</v>
       </c>
-      <c r="G97" s="68">
+      <c r="G97" s="66">
         <v>5337</v>
       </c>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="80"/>
-      <c r="K97" s="73"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="73"/>
-      <c r="N97" s="50"/>
-      <c r="O97" s="68"/>
-      <c r="P97" s="50"/>
-      <c r="Q97" s="68"/>
-      <c r="R97" s="50"/>
-      <c r="S97" s="68"/>
-      <c r="T97" s="50"/>
-      <c r="U97" s="68"/>
-      <c r="V97" s="50"/>
-      <c r="W97" s="68"/>
-      <c r="X97" s="50"/>
-      <c r="Y97" s="68"/>
-      <c r="Z97" s="50"/>
-      <c r="AA97" s="68"/>
-      <c r="AB97" s="50"/>
-      <c r="AC97" s="68"/>
-      <c r="AD97" s="50"/>
-      <c r="AE97" s="50"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="71"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="66"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="66"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="66"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="66"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="66"/>
+      <c r="Z97" s="48"/>
+      <c r="AA97" s="66"/>
+      <c r="AB97" s="48"/>
+      <c r="AC97" s="66"/>
+      <c r="AD97" s="48"/>
+      <c r="AE97" s="48"/>
     </row>
     <row r="98" spans="1:31" customFormat="1">
-      <c r="A98" s="68"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
       <c r="D98" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="80"/>
-      <c r="K98" s="73"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="73"/>
-      <c r="N98" s="50"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="50"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="50"/>
-      <c r="S98" s="68"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="68"/>
-      <c r="V98" s="50"/>
-      <c r="W98" s="68"/>
-      <c r="X98" s="50"/>
-      <c r="Y98" s="68"/>
-      <c r="Z98" s="50"/>
-      <c r="AA98" s="68"/>
-      <c r="AB98" s="50"/>
-      <c r="AC98" s="68"/>
-      <c r="AD98" s="50"/>
-      <c r="AE98" s="50"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="71"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="66"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="66"/>
+      <c r="V98" s="48"/>
+      <c r="W98" s="66"/>
+      <c r="X98" s="48"/>
+      <c r="Y98" s="66"/>
+      <c r="Z98" s="48"/>
+      <c r="AA98" s="66"/>
+      <c r="AB98" s="48"/>
+      <c r="AC98" s="66"/>
+      <c r="AD98" s="48"/>
+      <c r="AE98" s="48"/>
     </row>
     <row r="99" spans="1:31" customFormat="1">
-      <c r="A99" s="68"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="85" t="s">
+      <c r="A99" s="66"/>
+      <c r="B99" s="83"/>
+      <c r="C99" s="83" t="s">
         <v>133</v>
       </c>
       <c r="D99" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E99" s="85"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="80"/>
-      <c r="K99" s="73"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="73"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="50"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="50"/>
-      <c r="S99" s="68"/>
-      <c r="T99" s="50"/>
-      <c r="U99" s="68"/>
-      <c r="V99" s="50"/>
-      <c r="W99" s="68"/>
-      <c r="X99" s="50"/>
-      <c r="Y99" s="68"/>
-      <c r="Z99" s="50"/>
-      <c r="AA99" s="68"/>
-      <c r="AB99" s="50"/>
-      <c r="AC99" s="68"/>
-      <c r="AD99" s="50"/>
-      <c r="AE99" s="50"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="71"/>
+      <c r="N99" s="48"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="48"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="48"/>
+      <c r="U99" s="66"/>
+      <c r="V99" s="48"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="48"/>
+      <c r="Y99" s="66"/>
+      <c r="Z99" s="48"/>
+      <c r="AA99" s="66"/>
+      <c r="AB99" s="48"/>
+      <c r="AC99" s="66"/>
+      <c r="AD99" s="48"/>
+      <c r="AE99" s="48"/>
     </row>
     <row r="100" spans="1:31" customFormat="1">
-      <c r="A100" s="68"/>
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="83"/>
       <c r="D100" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E100" s="85"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="73"/>
-      <c r="N100" s="50"/>
-      <c r="O100" s="68"/>
-      <c r="P100" s="50"/>
-      <c r="Q100" s="68"/>
-      <c r="R100" s="50"/>
-      <c r="S100" s="68"/>
-      <c r="T100" s="50"/>
-      <c r="U100" s="68"/>
-      <c r="V100" s="50"/>
-      <c r="W100" s="68"/>
-      <c r="X100" s="50"/>
-      <c r="Y100" s="68"/>
-      <c r="Z100" s="50"/>
-      <c r="AA100" s="68"/>
-      <c r="AB100" s="50"/>
-      <c r="AC100" s="68"/>
-      <c r="AD100" s="50"/>
-      <c r="AE100" s="50"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="71"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="48"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="48"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="48"/>
+      <c r="Y100" s="66"/>
+      <c r="Z100" s="48"/>
+      <c r="AA100" s="66"/>
+      <c r="AB100" s="48"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="48"/>
+      <c r="AE100" s="48"/>
     </row>
     <row r="101" spans="1:31">
       <c r="A101" s="31"/>
@@ -6150,7 +6188,7 @@
       <c r="G101" s="31"/>
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
-      <c r="J101" s="34"/>
+      <c r="J101" s="33"/>
       <c r="K101" s="31"/>
       <c r="L101" s="31"/>
       <c r="M101" s="31"/>
@@ -6174,67 +6212,67 @@
       <c r="AE101" s="31"/>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="37" t="s">
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H102" s="37">
+      <c r="H102" s="36">
         <v>37.96</v>
       </c>
-      <c r="I102" s="37">
+      <c r="I102" s="36">
         <v>23.91</v>
       </c>
-      <c r="J102" s="34">
+      <c r="J102" s="33">
         <f>I102/H102</f>
         <v>0.62987355110642784</v>
       </c>
-      <c r="K102" s="74">
+      <c r="K102" s="72">
         <v>0.46450000000000002</v>
       </c>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74">
+      <c r="L102" s="72"/>
+      <c r="M102" s="72">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N102" s="66"/>
-      <c r="O102" s="66">
+      <c r="N102" s="64"/>
+      <c r="O102" s="64">
         <v>2165</v>
       </c>
-      <c r="P102" s="66"/>
-      <c r="Q102" s="67">
+      <c r="P102" s="64"/>
+      <c r="Q102" s="65">
         <v>80313680</v>
       </c>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67">
+      <c r="R102" s="65"/>
+      <c r="S102" s="65">
         <v>2170640</v>
       </c>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67">
+      <c r="T102" s="65"/>
+      <c r="U102" s="65">
         <v>197816</v>
       </c>
-      <c r="V102" s="67"/>
-      <c r="W102" s="67">
+      <c r="V102" s="65"/>
+      <c r="W102" s="65">
         <v>3370</v>
       </c>
-      <c r="X102" s="67"/>
-      <c r="Y102" s="67">
+      <c r="X102" s="65"/>
+      <c r="Y102" s="65">
         <v>467131637</v>
       </c>
-      <c r="Z102" s="67"/>
-      <c r="AA102" s="67">
+      <c r="Z102" s="65"/>
+      <c r="AA102" s="65">
         <v>12625179</v>
       </c>
-      <c r="AB102" s="67"/>
-      <c r="AC102" s="67">
+      <c r="AB102" s="65"/>
+      <c r="AC102" s="65">
         <v>1150570</v>
       </c>
-      <c r="AD102" s="67"/>
+      <c r="AD102" s="65"/>
       <c r="AE102" s="31"/>
     </row>
   </sheetData>
